--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="239">
   <si>
     <t>Descripción</t>
   </si>
@@ -711,9 +711,6 @@
     <t>Gestion Trivias Y Suscripciones</t>
   </si>
   <si>
-    <t>Gestion Modificacion De Datos</t>
-  </si>
-  <si>
     <t>Trivias Y Suscripciones</t>
   </si>
   <si>
@@ -733,6 +730,15 @@
   </si>
   <si>
     <t>2944675262</t>
+  </si>
+  <si>
+    <t>ProblemaRecargaPrepaga</t>
+  </si>
+  <si>
+    <t>Cambio SimCard Oficina</t>
+  </si>
+  <si>
+    <t>2944675324</t>
   </si>
 </sst>
 </file>
@@ -827,7 +833,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +868,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3715A"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3715A"/>
       </patternFill>
     </fill>
   </fills>
@@ -908,7 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,6 +1054,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1433,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2281,7 +2305,7 @@
     </row>
     <row r="18" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>97</v>
@@ -3304,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3482,10 +3506,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,11 +3608,11 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="73" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -3597,165 +3621,160 @@
       <c r="D15" s="21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+    </row>
+    <row r="16" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B18" s="24">
         <v>22222011</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="67" t="s">
+      <c r="B22" s="67" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3767,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3988,7 +4007,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="23"/>
@@ -4074,7 +4093,7 @@
         <v>97</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>56</v>
@@ -4195,171 +4214,193 @@
     </row>
     <row r="13" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C14" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H14" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M14" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O13" s="39"/>
-    </row>
-    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J15" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N15" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="49"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B17" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C17" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D18" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H18" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J18" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N18" s="18" t="s">
         <v>106</v>
       </c>
     </row>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -920,7 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1027,9 +1027,6 @@
     <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1458,7 +1455,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1752,7 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
     </row>
-    <row r="6" spans="1:26" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -1958,7 +1955,7 @@
       <c r="H10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -2002,7 +1999,7 @@
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="60" t="s">
         <v>112</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -2074,7 +2071,7 @@
       <c r="H12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>112</v>
       </c>
       <c r="J12" s="44" t="s">
@@ -2118,7 +2115,7 @@
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>112</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -2249,7 +2246,7 @@
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="1:26" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -2307,7 +2304,7 @@
       <c r="A18" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="46" t="s">
@@ -2483,826 +2480,826 @@
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:26" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="58">
         <v>22223000</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="60" t="s">
+      <c r="K22" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="L22" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="58">
         <v>22223001</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="60" t="s">
+      <c r="L23" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="58">
         <v>22223002</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="J24" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="60" t="s">
+      <c r="L24" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="58">
         <v>22223003</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="60" t="s">
+      <c r="L25" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="58">
         <v>22223004</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="65" t="s">
+      <c r="I26" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="60" t="s">
+      <c r="K26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="60" t="s">
+      <c r="L26" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="58">
         <v>22223005</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="62" t="s">
+      <c r="H27" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="K27" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="60" t="s">
+      <c r="L27" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="58">
         <v>22223006</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="65" t="s">
+      <c r="I28" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="60" t="s">
+      <c r="L28" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="58">
         <v>22223007</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="64" t="s">
+      <c r="J29" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="60" t="s">
+      <c r="L29" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="58">
         <v>22223008</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="60" t="s">
+      <c r="K30" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="60" t="s">
+      <c r="L30" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="58">
         <v>22223009</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="K31" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="60" t="s">
+      <c r="L31" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="58">
         <v>22223010</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="60" t="s">
+      <c r="L32" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="58">
         <v>22223011</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="J33" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="60" t="s">
+      <c r="L33" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="58">
         <v>22223012</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="60" t="s">
+      <c r="K34" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="60" t="s">
+      <c r="L34" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="58">
         <v>22223013</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="62" t="s">
+      <c r="H35" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="J35" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K35" s="60" t="s">
+      <c r="K35" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="60" t="s">
+      <c r="L35" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="58">
         <v>22223014</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="65" t="s">
+      <c r="I36" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K36" s="60" t="s">
+      <c r="K36" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="60" t="s">
+      <c r="L36" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="58">
         <v>22223015</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I37" s="65" t="s">
+      <c r="I37" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="60" t="s">
+      <c r="L37" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="58">
         <v>22223016</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="62" t="s">
+      <c r="H38" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I38" s="65" t="s">
+      <c r="I38" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K38" s="60" t="s">
+      <c r="K38" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="60" t="s">
+      <c r="L38" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="58">
         <v>22223017</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="65" t="s">
+      <c r="I39" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K39" s="60" t="s">
+      <c r="K39" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="60" t="s">
+      <c r="L39" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="58">
         <v>22223018</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="64" t="s">
+      <c r="J40" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K40" s="60" t="s">
+      <c r="K40" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" s="60" t="s">
+      <c r="L40" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="58">
         <v>22223019</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="61" t="s">
+      <c r="G41" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="65" t="s">
+      <c r="I41" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" s="60" t="s">
+      <c r="L41" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="59" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3608,11 +3605,11 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="72" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -3621,28 +3618,28 @@
       <c r="D15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
     </row>
     <row r="16" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
@@ -3734,7 +3731,7 @@
       <c r="A20" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="66" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3774,7 +3771,7 @@
       <c r="A22" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="66" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4191,13 +4188,13 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="28"/>
@@ -4209,8 +4206,8 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
@@ -4219,7 +4216,7 @@
       <c r="B13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>238</v>
       </c>
       <c r="D13" s="35"/>
@@ -4337,7 +4334,7 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -4349,7 +4346,7 @@
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="49" t="s">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="246">
   <si>
     <t>Descripción</t>
   </si>
@@ -739,6 +739,27 @@
   </si>
   <si>
     <t>2944675324</t>
+  </si>
+  <si>
+    <t>packAgente</t>
+  </si>
+  <si>
+    <t>22222010</t>
+  </si>
+  <si>
+    <t>2944674991</t>
+  </si>
+  <si>
+    <t>packOfCom</t>
+  </si>
+  <si>
+    <t>Pack 1GB + WhasApp x 1 día</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER RIO S.A.</t>
+  </si>
+  <si>
+    <t>VISA ARGENTINA</t>
   </si>
 </sst>
 </file>
@@ -920,7 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1028,17 +1049,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1054,15 +1065,17 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1454,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1765,7 @@
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
     </row>
-    <row r="6" spans="1:26" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -1955,7 +1968,7 @@
       <c r="H10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="56" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -1999,7 +2012,7 @@
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="56" t="s">
         <v>112</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -2071,7 +2084,7 @@
       <c r="H12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="56" t="s">
         <v>112</v>
       </c>
       <c r="J12" s="44" t="s">
@@ -2115,7 +2128,7 @@
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="56" t="s">
         <v>112</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -2246,7 +2259,7 @@
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="1:26" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -2304,7 +2317,7 @@
       <c r="A18" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="53" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="46" t="s">
@@ -2480,826 +2493,826 @@
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="1:26" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="54">
         <v>22223000</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="L22" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="54">
         <v>22223001</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="59" t="s">
+      <c r="L23" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="54">
         <v>22223002</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="59" t="s">
+      <c r="L24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="54">
         <v>22223003</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="64" t="s">
+      <c r="I25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="59" t="s">
+      <c r="L25" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="54">
         <v>22223004</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="59" t="s">
+      <c r="K26" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="59" t="s">
+      <c r="L26" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="54">
         <v>22223005</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="59" t="s">
+      <c r="L27" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="54">
         <v>22223006</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="59" t="s">
+      <c r="L28" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="54">
         <v>22223007</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="59" t="s">
+      <c r="L29" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="54">
         <v>22223008</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="59" t="s">
+      <c r="K30" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="59" t="s">
+      <c r="L30" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="54">
         <v>22223009</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="63" t="s">
+      <c r="J31" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="59" t="s">
+      <c r="K31" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="59" t="s">
+      <c r="L31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="54">
         <v>22223010</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K32" s="59" t="s">
+      <c r="K32" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="59" t="s">
+      <c r="L32" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="54">
         <v>22223011</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="64" t="s">
+      <c r="I33" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="59" t="s">
+      <c r="L33" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="54">
         <v>22223012</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="64" t="s">
+      <c r="I34" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="59" t="s">
+      <c r="K34" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="59" t="s">
+      <c r="L34" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="54">
         <v>22223013</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="I35" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K35" s="59" t="s">
+      <c r="K35" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="59" t="s">
+      <c r="L35" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="54">
         <v>22223014</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="64" t="s">
+      <c r="I36" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="J36" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="59" t="s">
+      <c r="L36" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="54">
         <v>22223015</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I37" s="64" t="s">
+      <c r="I37" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="59" t="s">
+      <c r="K37" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="59" t="s">
+      <c r="L37" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="54">
         <v>22223016</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K38" s="59" t="s">
+      <c r="K38" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="59" t="s">
+      <c r="L38" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="54">
         <v>22223017</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="I39" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="63" t="s">
+      <c r="J39" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K39" s="59" t="s">
+      <c r="K39" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="59" t="s">
+      <c r="L39" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="54">
         <v>22223018</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="64" t="s">
+      <c r="I40" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K40" s="59" t="s">
+      <c r="K40" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" s="59" t="s">
+      <c r="L40" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="54">
         <v>22223019</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="64" t="s">
+      <c r="I41" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="63" t="s">
+      <c r="J41" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="K41" s="59" t="s">
+      <c r="K41" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" s="59" t="s">
+      <c r="L41" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="55" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3328,7 +3341,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3605,11 +3618,11 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:26" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="67" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -3618,28 +3631,28 @@
       <c r="D15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
     </row>
     <row r="16" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
@@ -3731,7 +3744,7 @@
       <c r="A20" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="62" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3771,7 +3784,7 @@
       <c r="A22" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3783,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4130,274 +4143,326 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-    </row>
-    <row r="13" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F16" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H16" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I16" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L16" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N16" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N17" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="O17" s="14"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B18" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C18" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+      <c r="D18" s="71"/>
+    </row>
+    <row r="19" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B19" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C19" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D20" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H20" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I20" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K20" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>106</v>
       </c>
     </row>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
   <si>
     <t>Descripción</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Plan con tarjeta</t>
   </si>
   <si>
-    <t>Nominacion</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>2944675396</t>
   </si>
   <si>
-    <t>Dos</t>
-  </si>
-  <si>
     <t>Linea Equipo Existe SPU</t>
   </si>
   <si>
@@ -546,66 +540,6 @@
     <t>341309797</t>
   </si>
   <si>
-    <t>2932448620</t>
-  </si>
-  <si>
-    <t>2932448599</t>
-  </si>
-  <si>
-    <t>2932448606</t>
-  </si>
-  <si>
-    <t>2932448633</t>
-  </si>
-  <si>
-    <t>2932448632</t>
-  </si>
-  <si>
-    <t>2932448568</t>
-  </si>
-  <si>
-    <t>2932448553</t>
-  </si>
-  <si>
-    <t>2932448564</t>
-  </si>
-  <si>
-    <t>2932448592</t>
-  </si>
-  <si>
-    <t>2932448570</t>
-  </si>
-  <si>
-    <t>2932448205</t>
-  </si>
-  <si>
-    <t>2932448090</t>
-  </si>
-  <si>
-    <t>2932448410</t>
-  </si>
-  <si>
-    <t>2932448401</t>
-  </si>
-  <si>
-    <t>2932448372</t>
-  </si>
-  <si>
-    <t>2932448350</t>
-  </si>
-  <si>
-    <t>2932448337</t>
-  </si>
-  <si>
-    <t>2932448324</t>
-  </si>
-  <si>
-    <t>2932448311</t>
-  </si>
-  <si>
-    <t>2932448300</t>
-  </si>
-  <si>
     <t>Nom inacion</t>
   </si>
   <si>
@@ -615,63 +549,6 @@
     <t>Nominacionautoma@gmail.com</t>
   </si>
   <si>
-    <t>Cero</t>
-  </si>
-  <si>
-    <t>Uno</t>
-  </si>
-  <si>
-    <t>Tres</t>
-  </si>
-  <si>
-    <t>Cuatro</t>
-  </si>
-  <si>
-    <t>Cinco</t>
-  </si>
-  <si>
-    <t>Seis</t>
-  </si>
-  <si>
-    <t>Siete</t>
-  </si>
-  <si>
-    <t>Ocho</t>
-  </si>
-  <si>
-    <t>Nueve</t>
-  </si>
-  <si>
-    <t>Diez</t>
-  </si>
-  <si>
-    <t>Once</t>
-  </si>
-  <si>
-    <t>Doce</t>
-  </si>
-  <si>
-    <t>Trece</t>
-  </si>
-  <si>
-    <t>Catorce</t>
-  </si>
-  <si>
-    <t>Quince</t>
-  </si>
-  <si>
-    <t>Dieciseis</t>
-  </si>
-  <si>
-    <t>Diecisiete</t>
-  </si>
-  <si>
-    <t>Dieciocho</t>
-  </si>
-  <si>
-    <t>Diecinueve</t>
-  </si>
-  <si>
     <t>Punta Alta Alte Solier</t>
   </si>
   <si>
@@ -760,6 +637,99 @@
   </si>
   <si>
     <t>VISA ARGENTINA</t>
+  </si>
+  <si>
+    <t>222220015</t>
+  </si>
+  <si>
+    <t>22223030</t>
+  </si>
+  <si>
+    <t>22223031</t>
+  </si>
+  <si>
+    <t>22223032</t>
+  </si>
+  <si>
+    <t>22223033</t>
+  </si>
+  <si>
+    <t>22223034</t>
+  </si>
+  <si>
+    <t>22223035</t>
+  </si>
+  <si>
+    <t>22223036</t>
+  </si>
+  <si>
+    <t>22223037</t>
+  </si>
+  <si>
+    <t>22223038</t>
+  </si>
+  <si>
+    <t>22223039</t>
+  </si>
+  <si>
+    <t>Treinta</t>
+  </si>
+  <si>
+    <t>Treintaiuno</t>
+  </si>
+  <si>
+    <t>Treintaidos</t>
+  </si>
+  <si>
+    <t>Treintaitres</t>
+  </si>
+  <si>
+    <t>Treintaicuatro</t>
+  </si>
+  <si>
+    <t>Treintaicinco</t>
+  </si>
+  <si>
+    <t>Treintaiseis</t>
+  </si>
+  <si>
+    <t>Treintaisiete</t>
+  </si>
+  <si>
+    <t>Treitaiocho</t>
+  </si>
+  <si>
+    <t>Treintainueve</t>
+  </si>
+  <si>
+    <t>2932446927</t>
+  </si>
+  <si>
+    <t>2932446963</t>
+  </si>
+  <si>
+    <t>2932446969</t>
+  </si>
+  <si>
+    <t>2932446979</t>
+  </si>
+  <si>
+    <t>2932447004</t>
+  </si>
+  <si>
+    <t>2932447098</t>
+  </si>
+  <si>
+    <t>2932447111</t>
+  </si>
+  <si>
+    <t>2932440039</t>
+  </si>
+  <si>
+    <t>2932440049</t>
+  </si>
+  <si>
+    <t>2932440071</t>
   </si>
 </sst>
 </file>
@@ -854,7 +824,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +865,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFF3715A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -941,7 +923,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1076,6 +1058,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1420,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1467,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1490,169 +1479,169 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="N1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="X1" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="K2" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="P2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="Q2" s="46" t="s">
         <v>40</v>
-      </c>
-      <c r="Q2" s="46" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="E3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="F3" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="K3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="M3" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="46"/>
       <c r="O3" s="44"/>
@@ -1660,43 +1649,43 @@
     </row>
     <row r="4" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="K4" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="M4" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="47"/>
@@ -1705,58 +1694,58 @@
     </row>
     <row r="5" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="E5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>69</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -1767,7 +1756,7 @@
     </row>
     <row r="6" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1776,19 +1765,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1811,28 +1800,28 @@
     </row>
     <row r="7" spans="1:26" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -1845,10 +1834,10 @@
     </row>
     <row r="8" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>12</v>
@@ -1867,231 +1856,233 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="L9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="O9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="S9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="Y9" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="L10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="N10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="L11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="O11" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="V11" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="V11" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="18" t="s">
-        <v>81</v>
+      <c r="W11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="G12" s="50" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>111</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J12" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="44" t="s">
         <v>79</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>80</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="44"/>
@@ -2108,50 +2099,50 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="L13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N13" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2160,25 +2151,25 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2199,29 +2190,23 @@
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="42"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -2231,22 +2216,22 @@
     </row>
     <row r="16" spans="1:26" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>40</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -2261,43 +2246,43 @@
     </row>
     <row r="17" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="K17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="40"/>
@@ -2315,34 +2300,34 @@
     </row>
     <row r="18" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="F18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="46" t="s">
+      <c r="H18" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="I18" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="J18" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
@@ -2353,43 +2338,43 @@
     </row>
     <row r="19" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="E19" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>61</v>
-      </c>
       <c r="H19" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I19" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="K19" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="M19" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
@@ -2397,43 +2382,43 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="40"/>
@@ -2451,870 +2436,610 @@
     </row>
     <row r="21" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="45">
         <v>22222020</v>
       </c>
       <c r="D21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="F21" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="G21" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>22</v>
-      </c>
       <c r="I21" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="K21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="M21" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="44"/>
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="54">
-        <v>22223000</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="56" t="s">
+      <c r="I22" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" s="55" t="s">
+      <c r="J22" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>47</v>
+      <c r="M22" s="74" t="s">
+        <v>46</v>
       </c>
       <c r="N22" s="55"/>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="54">
-        <v>22223001</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="56" t="s">
+      <c r="K23" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K23" s="55" t="s">
+      <c r="J24" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="54">
-        <v>22223002</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="56" t="s">
+      <c r="M24" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K24" s="55" t="s">
+      <c r="J25" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="54">
-        <v>22223003</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="56" t="s">
+      <c r="M25" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K25" s="55" t="s">
+      <c r="J26" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="54">
-        <v>22223004</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="56" t="s">
+      <c r="M26" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K26" s="55" t="s">
+      <c r="J27" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="54">
-        <v>22223005</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="56" t="s">
+      <c r="M27" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K27" s="55" t="s">
+      <c r="J28" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="54">
-        <v>22223006</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="56" t="s">
+      <c r="M28" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K28" s="55" t="s">
+      <c r="J29" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="54">
-        <v>22223007</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="56" t="s">
+      <c r="M29" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K29" s="55" t="s">
+      <c r="J30" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="54">
-        <v>22223008</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="56" t="s">
+      <c r="M30" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="55" t="s">
+      <c r="J31" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="54">
-        <v>22223009</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="55" t="s">
+      <c r="M31" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="55" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="54">
-        <v>22223010</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K32" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A32" s="54"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="54">
-        <v>22223011</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A33" s="54"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="54">
-        <v>22223012</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K34" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A34" s="54"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="54">
-        <v>22223013</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K35" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A35" s="54"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="54">
-        <v>22223014</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K36" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A36" s="54"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="54">
-        <v>22223015</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K37" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A37" s="54"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="54">
-        <v>22223016</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K38" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L38" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A38" s="54"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="54">
-        <v>22223017</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K39" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A39" s="54"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="54">
-        <v>22223018</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K40" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A40" s="54"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="54">
-        <v>22223019</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K41" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="A41" s="54"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3362,19 +3087,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3400,13 +3125,13 @@
     </row>
     <row r="2" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D2" s="24">
         <v>1161138551</v>
@@ -3414,13 +3139,13 @@
     </row>
     <row r="3" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="E3" s="24">
         <v>1161138552</v>
@@ -3428,54 +3153,54 @@
     </row>
     <row r="4" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -3507,38 +3232,38 @@
     </row>
     <row r="9" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -3566,16 +3291,16 @@
     </row>
     <row r="12" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="24">
         <v>22222003</v>
@@ -3584,16 +3309,16 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="6"/>
@@ -3620,16 +3345,16 @@
     </row>
     <row r="15" spans="1:26" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="65"/>
@@ -3656,21 +3381,21 @@
     </row>
     <row r="16" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -3702,7 +3427,7 @@
     </row>
     <row r="18" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="24">
         <v>22222011</v>
@@ -3710,7 +3435,7 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -3742,15 +3467,15 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -3782,10 +3507,10 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3813,49 +3538,49 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3872,64 +3597,64 @@
     </row>
     <row r="2" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -3943,54 +3668,54 @@
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="24">
         <v>22222003</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="K4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -3998,75 +3723,75 @@
     </row>
     <row r="6" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="O8" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4083,160 +3808,160 @@
     </row>
     <row r="9" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="L10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="37" t="s">
-        <v>54</v>
-      </c>
       <c r="M10" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="G13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="N13" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="4"/>
@@ -4254,13 +3979,13 @@
     </row>
     <row r="14" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="35"/>
       <c r="F14" s="35"/>
@@ -4276,13 +4001,13 @@
     </row>
     <row r="15" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="D15" s="35"/>
       <c r="F15" s="35"/>
@@ -4298,91 +4023,91 @@
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>123</v>
-      </c>
       <c r="I16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="K16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="37" t="s">
-        <v>54</v>
-      </c>
       <c r="L16" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="G17" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="N17" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="4"/>
@@ -4400,70 +4125,70 @@
     </row>
     <row r="18" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="71" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="71"/>
     </row>
     <row r="19" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="K20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="37" t="s">
-        <v>54</v>
-      </c>
       <c r="L20" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3524,7 +3524,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4193,5 +4193,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="237">
   <si>
     <t>Descripción</t>
   </si>
@@ -510,9 +510,6 @@
     <t>1544</t>
   </si>
   <si>
-    <t>666</t>
-  </si>
-  <si>
     <t>Calle</t>
   </si>
   <si>
@@ -585,15 +582,9 @@
     <t>Amigos Baja</t>
   </si>
   <si>
-    <t>Gestion Trivias Y Suscripciones</t>
-  </si>
-  <si>
     <t>Trivias Y Suscripciones</t>
   </si>
   <si>
-    <t>Gestion Reintegros</t>
-  </si>
-  <si>
     <t>Reintegros</t>
   </si>
   <si>
@@ -639,9 +630,6 @@
     <t>VISA ARGENTINA</t>
   </si>
   <si>
-    <t>222220015</t>
-  </si>
-  <si>
     <t>22223030</t>
   </si>
   <si>
@@ -730,6 +718,21 @@
   </si>
   <si>
     <t>2932440071</t>
+  </si>
+  <si>
+    <t>22222015</t>
+  </si>
+  <si>
+    <t>Gestion Trivias Y Suscripcion</t>
+  </si>
+  <si>
+    <t>GestionReintegro</t>
+  </si>
+  <si>
+    <t>GestionAnulacion de Venta</t>
+  </si>
+  <si>
+    <t>Anulacion de venta</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,6 +882,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -923,7 +932,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,9 +973,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -980,12 +986,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1017,23 +1017,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1065,6 +1054,15 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1456,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1509,13 +1507,13 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>124</v>
@@ -1553,50 +1551,50 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="69" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="46" t="s">
@@ -1606,118 +1604,118 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N3" s="46"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
     </row>
-    <row r="5" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="45" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="46" t="s">
@@ -1726,35 +1724,35 @@
       <c r="K5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-    </row>
-    <row r="6" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+    </row>
+    <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
@@ -1774,7 +1772,7 @@
         <v>126</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>153</v>
@@ -1785,8 +1783,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1798,61 +1796,61 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+    </row>
+    <row r="8" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1880,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -1889,13 +1887,13 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>124</v>
@@ -1932,51 +1930,51 @@
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:26" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2003,7 +2001,7 @@
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="46" t="s">
         <v>110</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -2021,81 +2019,87 @@
       <c r="N11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="25" t="s">
         <v>105</v>
       </c>
       <c r="R11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="T11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="U11" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="37" t="s">
+      <c r="V11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="W11" s="47" t="s">
+      <c r="W11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="41" t="s">
         <v>39</v>
       </c>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
+      <c r="L12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2119,7 +2123,7 @@
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="46" t="s">
         <v>110</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -2132,10 +2136,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N13" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -2151,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>124</v>
@@ -2163,7 +2167,7 @@
         <v>126</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>153</v>
@@ -2175,8 +2179,8 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2193,7 +2197,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -2207,46 +2211,46 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="42"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:26" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="69" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="17" spans="1:26" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2267,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2276,17 +2280,17 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2298,91 +2302,91 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="53" t="s">
+    <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="45" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="J18" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-    </row>
-    <row r="19" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>170</v>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>169</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="44" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="71" t="s">
         <v>60</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="45" t="s">
         <v>79</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2412,17 +2416,17 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2434,612 +2438,612 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="40">
+        <v>22222020</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+    </row>
+    <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="F22" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="45">
-        <v>22222020</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="44" t="s">
+      <c r="B23" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G23" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="44" t="s">
+      <c r="H23" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L23" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M23" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="F24" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C26" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D26" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E26" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="I26" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G27" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H27" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="K27" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" s="74" t="s">
+      <c r="J28" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="74" t="s">
+      <c r="L28" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="74" t="s">
+      <c r="M28" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="74" t="s">
+      <c r="F29" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="I29" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="75" t="s">
+      <c r="G30" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H30" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="K30" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="74" t="s">
+      <c r="J31" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="74" t="s">
+      <c r="L31" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="74" t="s">
+      <c r="M31" s="64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I28" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I30" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="I31" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3063,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3123,7 +3127,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
@@ -3131,13 +3135,13 @@
         <v>116</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="24">
+        <v>180</v>
+      </c>
+      <c r="D2" s="23">
         <v>1161138551</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
@@ -3145,56 +3149,56 @@
         <v>116</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="24">
+        <v>180</v>
+      </c>
+      <c r="E3" s="23">
         <v>1161138552</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3230,8 +3234,8 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -3240,15 +3244,15 @@
       <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="D9" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -3289,23 +3293,23 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>22222003</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -3343,11 +3347,11 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="67" t="s">
+    <row r="15" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -3356,31 +3360,31 @@
       <c r="D15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-    </row>
-    <row r="16" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3425,17 +3429,17 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>22222011</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -3467,15 +3471,15 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -3507,10 +3511,50 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3568,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3587,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -3595,7 +3639,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>111</v>
       </c>
@@ -3606,16 +3650,16 @@
         <v>100</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>178</v>
+      <c r="G2" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>51</v>
@@ -3630,20 +3674,20 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="34" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="37"/>
-    </row>
-    <row r="3" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
@@ -3666,18 +3710,18 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>22222003</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>140</v>
@@ -3686,7 +3730,7 @@
         <v>139</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>89</v>
@@ -3694,35 +3738,35 @@
       <c r="I4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3732,20 +3776,20 @@
         <v>118</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -3754,7 +3798,7 @@
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3806,8 +3850,8 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -3816,45 +3860,45 @@
       <c r="C9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>105</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
         <v>53</v>
       </c>
       <c r="M10" s="21" t="s">
@@ -3868,53 +3912,53 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:27" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>198</v>
+    <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="E11" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>204</v>
+      <c r="G11" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>54</v>
@@ -3927,7 +3971,7 @@
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3977,94 +4021,94 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="D14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-    </row>
-    <row r="16" spans="1:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+      <c r="C15" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -4073,7 +4117,7 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -4123,29 +4167,29 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="71"/>
-    </row>
-    <row r="19" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="71"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
@@ -4157,28 +4201,28 @@
       <c r="C20" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>105</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="34" t="s">
         <v>53</v>
       </c>
       <c r="L20" s="21" t="s">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -3070,7 +3070,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="236">
   <si>
     <t>Descripción</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Venta de pack saldo</t>
   </si>
   <si>
-    <t>venta de pack TC</t>
-  </si>
-  <si>
     <t>Cuota</t>
   </si>
   <si>
@@ -624,12 +621,6 @@
     <t>Pack 1GB + WhasApp x 1 día</t>
   </si>
   <si>
-    <t>BANCO SANTANDER RIO S.A.</t>
-  </si>
-  <si>
-    <t>VISA ARGENTINA</t>
-  </si>
-  <si>
     <t>22223030</t>
   </si>
   <si>
@@ -733,6 +724,12 @@
   </si>
   <si>
     <t>Anulacion de venta</t>
+  </si>
+  <si>
+    <t>Doce Newton</t>
+  </si>
+  <si>
+    <t>packTelefonico</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1507,13 +1504,13 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>124</v>
@@ -1525,7 +1522,7 @@
         <v>126</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>127</v>
@@ -1546,7 +1543,7 @@
         <v>132</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1695,7 +1692,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>66</v>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1772,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1807,13 +1804,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>54</v>
@@ -1835,7 +1832,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>12</v>
@@ -1854,7 +1851,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -1878,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -1887,13 +1884,13 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>124</v>
@@ -1905,7 +1902,7 @@
         <v>126</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>127</v>
@@ -1926,7 +1923,7 @@
         <v>132</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2014,7 +2011,7 @@
         <v>45</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>46</v>
@@ -2086,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>46</v>
@@ -2136,7 +2133,7 @@
         <v>45</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>46</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2155,7 +2152,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>124</v>
@@ -2167,10 +2164,10 @@
         <v>126</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2197,7 +2194,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -2250,7 +2247,7 @@
     </row>
     <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2271,7 +2268,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2280,13 +2277,13 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2304,7 +2301,7 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>95</v>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>72</v>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2416,13 +2413,13 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2440,10 +2437,10 @@
     </row>
     <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2484,19 +2481,19 @@
     </row>
     <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>20</v>
@@ -2505,13 +2502,13 @@
         <v>22</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" s="64" t="s">
         <v>45</v>
@@ -2528,19 +2525,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>20</v>
@@ -2549,13 +2546,13 @@
         <v>22</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K23" s="64" t="s">
         <v>45</v>
@@ -2569,19 +2566,19 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>20</v>
@@ -2590,13 +2587,13 @@
         <v>22</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K24" s="64" t="s">
         <v>45</v>
@@ -2610,19 +2607,19 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>20</v>
@@ -2631,13 +2628,13 @@
         <v>22</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="64" t="s">
         <v>45</v>
@@ -2651,19 +2648,19 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>20</v>
@@ -2672,13 +2669,13 @@
         <v>22</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I26" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K26" s="64" t="s">
         <v>45</v>
@@ -2692,19 +2689,19 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>20</v>
@@ -2713,13 +2710,13 @@
         <v>22</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I27" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K27" s="64" t="s">
         <v>45</v>
@@ -2733,19 +2730,19 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>20</v>
@@ -2754,13 +2751,13 @@
         <v>22</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I28" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K28" s="64" t="s">
         <v>45</v>
@@ -2774,19 +2771,19 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>20</v>
@@ -2795,13 +2792,13 @@
         <v>22</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I29" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K29" s="64" t="s">
         <v>45</v>
@@ -2815,19 +2812,19 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>20</v>
@@ -2836,13 +2833,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K30" s="64" t="s">
         <v>45</v>
@@ -2856,19 +2853,19 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="64" t="s">
         <v>171</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>172</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>20</v>
@@ -2877,13 +2874,13 @@
         <v>22</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I31" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K31" s="64" t="s">
         <v>45</v>
@@ -3069,7 +3066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3091,7 +3088,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3100,10 +3097,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3135,7 +3132,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3149,7 +3146,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3157,46 +3154,46 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>180</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>89</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -3245,10 +3242,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,13 +3258,13 @@
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -3313,16 +3310,16 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="6"/>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="15" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="57" t="s">
         <v>112</v>
@@ -3399,7 +3396,7 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>83</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -3511,7 +3508,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>112</v>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -3551,7 +3548,7 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>83</v>
@@ -3567,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3600,7 @@
         <v>126</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>127</v>
@@ -3624,7 +3621,7 @@
         <v>132</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3650,7 +3647,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>101</v>
@@ -3659,7 +3656,7 @@
         <v>87</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>51</v>
@@ -3674,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
@@ -3721,16 +3718,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>89</v>
@@ -3745,7 +3742,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>104</v>
@@ -3786,7 +3783,7 @@
         <v>95</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
@@ -3814,7 +3811,7 @@
         <v>126</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>127</v>
@@ -3835,7 +3832,7 @@
         <v>132</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3866,13 +3863,13 @@
     </row>
     <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>55</v>
@@ -3908,31 +3905,31 @@
         <v>80</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>201</v>
+      <c r="G11" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>54</v>
@@ -3940,25 +3937,25 @@
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>200</v>
+      <c r="E12" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>201</v>
+      <c r="G12" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>54</v>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -3984,7 +3981,7 @@
         <v>126</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>127</v>
@@ -4005,7 +4002,7 @@
         <v>132</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="4"/>
@@ -4045,13 +4042,13 @@
     </row>
     <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="32"/>
       <c r="F15" s="32"/>
@@ -4073,7 +4070,7 @@
         <v>95</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>101</v>
@@ -4112,7 +4109,7 @@
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -4130,7 +4127,7 @@
         <v>126</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>127</v>
@@ -4151,7 +4148,7 @@
         <v>132</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="4"/>
@@ -4193,7 +4190,7 @@
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>83</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -3565,7 +3565,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="242">
   <si>
     <t>Descripción</t>
   </si>
@@ -252,9 +252,6 @@
     <t>11120000000212</t>
   </si>
   <si>
-    <t>35653982</t>
-  </si>
-  <si>
     <t>0818</t>
   </si>
   <si>
@@ -730,17 +727,45 @@
   </si>
   <si>
     <t>packTelefonico</t>
+  </si>
+  <si>
+    <t>VISA ARGENTINA S.A. - Cuotas: 1.. 1 Recargo: 0,00%</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER RIO S.A.</t>
+  </si>
+  <si>
+    <t>95000222</t>
+  </si>
+  <si>
+    <t>22222012</t>
+  </si>
+  <si>
+    <t>Store Pick Up</t>
+  </si>
+  <si>
+    <t>Centro de Servicio Santa Fe - Juan de Garay 444</t>
+  </si>
+  <si>
+    <t>22222022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -823,8 +848,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,6 +916,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -924,147 +961,161 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1451,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1525,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1504,46 +1555,46 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="N1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="X1" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1574,10 +1625,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>79</v>
       </c>
       <c r="K2" s="45" t="s">
         <v>45</v>
@@ -1624,10 +1675,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>79</v>
       </c>
       <c r="K3" s="45" t="s">
         <v>45</v>
@@ -1668,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>79</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>45</v>
@@ -1692,7 +1743,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>66</v>
@@ -1728,19 +1779,19 @@
         <v>46</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="R5" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
@@ -1751,7 +1802,7 @@
     </row>
     <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1760,19 +1811,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1795,28 +1846,28 @@
     </row>
     <row r="7" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -1832,7 +1883,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>12</v>
@@ -1851,7 +1902,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -1875,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -1884,46 +1935,46 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="O9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="Q9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="R9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="W9" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="X9" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="Y9" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -1953,13 +2004,13 @@
         <v>12</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="77" t="s">
         <v>78</v>
-      </c>
-      <c r="K10" s="77" t="s">
-        <v>79</v>
       </c>
       <c r="L10" s="74" t="s">
         <v>45</v>
@@ -1975,7 +2026,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>72</v>
@@ -1999,37 +2050,37 @@
         <v>12</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>51</v>
@@ -2050,40 +2101,40 @@
     </row>
     <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="70" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="71" t="s">
         <v>108</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>109</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>79</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>46</v>
@@ -2100,7 +2151,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -2121,19 +2172,19 @@
         <v>12</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>46</v>
@@ -2143,7 +2194,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2152,22 +2203,22 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2194,13 +2245,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
@@ -2217,16 +2268,16 @@
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="69" t="s">
         <v>38</v>
@@ -2247,7 +2298,7 @@
     </row>
     <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2268,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2277,13 +2328,13 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2301,34 +2352,34 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>86</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="I18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="J18" s="46" t="s">
         <v>90</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>91</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
@@ -2339,7 +2390,7 @@
     </row>
     <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>72</v>
@@ -2360,13 +2411,13 @@
         <v>60</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>79</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>45</v>
@@ -2383,7 +2434,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2413,13 +2464,13 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2437,10 +2488,10 @@
     </row>
     <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2461,10 +2512,10 @@
         <v>21</v>
       </c>
       <c r="I21" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="39" t="s">
         <v>78</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>79</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>45</v>
@@ -2481,19 +2532,19 @@
     </row>
     <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>20</v>
@@ -2502,13 +2553,13 @@
         <v>22</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K22" s="64" t="s">
         <v>45</v>
@@ -2525,19 +2576,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>20</v>
@@ -2546,13 +2597,13 @@
         <v>22</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K23" s="64" t="s">
         <v>45</v>
@@ -2566,19 +2617,19 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>20</v>
@@ -2587,13 +2638,13 @@
         <v>22</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K24" s="64" t="s">
         <v>45</v>
@@ -2607,19 +2658,19 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>20</v>
@@ -2628,13 +2679,13 @@
         <v>22</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K25" s="64" t="s">
         <v>45</v>
@@ -2648,19 +2699,19 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>20</v>
@@ -2669,13 +2720,13 @@
         <v>22</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I26" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" s="64" t="s">
         <v>45</v>
@@ -2689,19 +2740,19 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>20</v>
@@ -2710,13 +2761,13 @@
         <v>22</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I27" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K27" s="64" t="s">
         <v>45</v>
@@ -2730,19 +2781,19 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>20</v>
@@ -2751,13 +2802,13 @@
         <v>22</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I28" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K28" s="64" t="s">
         <v>45</v>
@@ -2771,19 +2822,19 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>20</v>
@@ -2792,13 +2843,13 @@
         <v>22</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I29" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K29" s="64" t="s">
         <v>45</v>
@@ -2812,19 +2863,19 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>20</v>
@@ -2833,13 +2884,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K30" s="64" t="s">
         <v>45</v>
@@ -2853,19 +2904,19 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="64" t="s">
         <v>170</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>171</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>20</v>
@@ -2874,13 +2925,13 @@
         <v>22</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I31" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K31" s="64" t="s">
         <v>45</v>
@@ -3066,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3139,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3097,10 +3148,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3129,10 +3180,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3143,10 +3194,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3154,54 +3205,54 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -3236,16 +3287,16 @@
         <v>44</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>188</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,18 +3304,18 @@
         <v>61</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -3292,34 +3343,34 @@
     </row>
     <row r="12" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="23">
-        <v>22222003</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="6"/>
@@ -3346,16 +3397,16 @@
     </row>
     <row r="15" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
@@ -3385,18 +3436,18 @@
         <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -3428,7 +3479,7 @@
     </row>
     <row r="18" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="23">
         <v>22222011</v>
@@ -3436,7 +3487,7 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -3468,15 +3519,15 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -3508,15 +3559,15 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -3548,10 +3599,10 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3564,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3575,53 +3626,54 @@
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3638,25 +3690,25 @@
     </row>
     <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="F2" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>175</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>176</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>51</v>
@@ -3671,13 +3723,13 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>54</v>
@@ -3689,13 +3741,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -3709,48 +3761,48 @@
     </row>
     <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="23">
         <v>22222003</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -3767,10 +3819,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
@@ -3780,17 +3832,17 @@
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -3799,40 +3851,40 @@
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="O8" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3849,13 +3901,13 @@
     </row>
     <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>55</v>
@@ -3863,31 +3915,31 @@
     </row>
     <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>101</v>
+      <c r="E10" s="79" t="s">
+        <v>236</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>235</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>51</v>
@@ -3902,34 +3954,34 @@
         <v>31</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>54</v>
@@ -3937,25 +3989,25 @@
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>198</v>
-      </c>
       <c r="E12" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>54</v>
@@ -3963,7 +4015,7 @@
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -3972,37 +4024,37 @@
         <v>26</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="N13" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="4"/>
@@ -4020,15 +4072,16 @@
     </row>
     <row r="14" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="32"/>
+        <v>117</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="34"/>
@@ -4042,15 +4095,16 @@
     </row>
     <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="34"/>
@@ -4062,54 +4116,66 @@
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="L16" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="N16" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="O16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="P16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="Q16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="36"/>
+      <c r="R16" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="85"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -4118,37 +4184,37 @@
         <v>26</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="G17" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="N17" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="4"/>
@@ -4169,10 +4235,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>81</v>
       </c>
       <c r="D18" s="61"/>
     </row>
@@ -4181,37 +4247,37 @@
         <v>35</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>51</v>
@@ -4226,13 +4292,16 @@
         <v>31</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R16:S16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="243">
   <si>
     <t>Descripción</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>22222022</t>
+  </si>
+  <si>
+    <t>2944675292</t>
   </si>
 </sst>
 </file>
@@ -3615,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3969,7 +3972,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>197</v>
@@ -4078,7 +4081,7 @@
         <v>112</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="46"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="248">
   <si>
     <t>Descripción</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Recarga Efectivo</t>
   </si>
   <si>
-    <t>Suspension</t>
-  </si>
-  <si>
     <t>Falsa</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Alta Linea Equip New AG Credito</t>
   </si>
   <si>
-    <t>22222004</t>
-  </si>
-  <si>
     <t>Galaxy S8 - Negro</t>
   </si>
   <si>
@@ -751,6 +745,27 @@
   </si>
   <si>
     <t>2944675292</t>
+  </si>
+  <si>
+    <t>SuspensionOficina</t>
+  </si>
+  <si>
+    <t>ProblemaRecargaQuemada</t>
+  </si>
+  <si>
+    <t>ProblemaRecargaAyD</t>
+  </si>
+  <si>
+    <t>11120000001689</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>22222013</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1505,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1543,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1558,46 +1573,46 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="N1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="X1" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1607,10 +1622,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>19</v>
@@ -1628,19 +1643,19 @@
         <v>12</v>
       </c>
       <c r="I2" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="M2" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="46" t="s">
         <v>37</v>
@@ -1678,19 +1693,19 @@
         <v>12</v>
       </c>
       <c r="I3" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="K3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="M3" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="46"/>
       <c r="O3" s="45"/>
@@ -1701,13 +1716,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="44" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>65</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>20</v>
@@ -1722,19 +1737,19 @@
         <v>12</v>
       </c>
       <c r="I4" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="K4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="69"/>
@@ -1743,16 +1758,16 @@
     </row>
     <row r="5" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>20</v>
@@ -1761,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>12</v>
@@ -1770,31 +1785,31 @@
         <v>23</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
@@ -1805,7 +1820,7 @@
     </row>
     <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1814,19 +1829,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1849,28 +1864,28 @@
     </row>
     <row r="7" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -1886,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>12</v>
@@ -1905,7 +1920,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -1929,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -1938,61 +1953,61 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="O9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="Y9" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="75" t="s">
+      <c r="D10" s="75" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="75" t="s">
         <v>20</v>
@@ -2001,44 +2016,44 @@
         <v>22</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J10" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="77" t="s">
-        <v>78</v>
-      </c>
       <c r="L10" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="77" t="s">
-        <v>46</v>
-      </c>
       <c r="N10" s="77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="77"/>
       <c r="P10" s="77"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -2047,52 +2062,52 @@
         <v>22</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="L11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="O11" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="V11" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="W11" s="42" t="s">
         <v>38</v>
@@ -2104,43 +2119,43 @@
     </row>
     <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J12" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="L12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
@@ -2154,13 +2169,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2169,35 +2184,35 @@
         <v>22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="L13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2206,22 +2221,22 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2245,16 +2260,16 @@
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
@@ -2271,16 +2286,16 @@
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="69" t="s">
         <v>38</v>
@@ -2301,7 +2316,7 @@
     </row>
     <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2322,7 +2337,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2331,13 +2346,13 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2355,34 +2370,34 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="F18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="46" t="s">
+      <c r="H18" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="I18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="J18" s="46" t="s">
         <v>89</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>90</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
@@ -2393,16 +2408,16 @@
     </row>
     <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>20</v>
@@ -2411,25 +2426,25 @@
         <v>22</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I19" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="K19" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="M19" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
@@ -2437,7 +2452,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2467,13 +2482,13 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2491,10 +2506,10 @@
     </row>
     <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2515,19 +2530,19 @@
         <v>21</v>
       </c>
       <c r="I21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="K21" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>46</v>
-      </c>
       <c r="M21" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
@@ -2535,19 +2550,19 @@
     </row>
     <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>20</v>
@@ -2556,22 +2571,22 @@
         <v>22</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K22" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M22" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
@@ -2579,19 +2594,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>20</v>
@@ -2600,39 +2615,39 @@
         <v>22</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K23" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M23" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>20</v>
@@ -2641,39 +2656,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K24" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M24" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>20</v>
@@ -2682,39 +2697,39 @@
         <v>22</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K25" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M25" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>20</v>
@@ -2723,39 +2738,39 @@
         <v>22</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I26" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M26" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>20</v>
@@ -2764,39 +2779,39 @@
         <v>22</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I27" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K27" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M27" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>20</v>
@@ -2805,39 +2820,39 @@
         <v>22</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I28" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M28" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>20</v>
@@ -2846,39 +2861,39 @@
         <v>22</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I29" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K29" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M29" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>20</v>
@@ -2887,39 +2902,39 @@
         <v>22</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M30" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>20</v>
@@ -2928,22 +2943,22 @@
         <v>22</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I31" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K31" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="M31" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3118,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3151,10 +3166,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3183,10 +3198,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3197,10 +3212,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3208,54 +3223,54 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -3287,38 +3302,38 @@
     </row>
     <row r="9" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -3346,34 +3361,34 @@
     </row>
     <row r="12" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="6"/>
@@ -3400,16 +3415,16 @@
     </row>
     <row r="15" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
@@ -3434,63 +3449,91 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="56"/>
     </row>
-    <row r="16" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>111</v>
+    <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="23">
-        <v>22222011</v>
-      </c>
+      <c r="A18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -3520,17 +3563,17 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>82</v>
+    <row r="20" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="23">
+        <v>22222011</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -3562,15 +3605,15 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -3602,10 +3645,50 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>82</v>
+        <v>183</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3618,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3634,49 +3717,49 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3693,49 +3776,49 @@
     </row>
     <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="34"/>
     </row>
@@ -3744,13 +3827,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -3764,48 +3847,48 @@
     </row>
     <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="23">
         <v>22222003</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -3822,10 +3905,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
@@ -3835,17 +3918,17 @@
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -3854,40 +3937,40 @@
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="O8" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3904,121 +3987,121 @@
     </row>
     <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>236</v>
-      </c>
       <c r="F10" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="L10" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>242</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>234</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>100</v>
+      <c r="E12" s="79" t="s">
+        <v>234</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -4027,37 +4110,37 @@
         <v>26</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="G13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="N13" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="4"/>
@@ -4075,13 +4158,13 @@
     </row>
     <row r="14" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="46"/>
@@ -4098,13 +4181,13 @@
     </row>
     <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="46"/>
@@ -4121,16 +4204,16 @@
     </row>
     <row r="16" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>38</v>
@@ -4139,46 +4222,46 @@
         <v>39</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K16" s="80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="82" t="s">
+      <c r="O16" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R16" s="85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S16" s="85"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -4187,37 +4270,37 @@
         <v>26</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="G17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="N17" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="4"/>
@@ -4238,10 +4321,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>80</v>
       </c>
       <c r="D18" s="61"/>
     </row>
@@ -4250,55 +4333,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -714,9 +714,6 @@
     <t>GestionAnulacion de Venta</t>
   </si>
   <si>
-    <t>Anulacion de venta</t>
-  </si>
-  <si>
     <t>Doce Newton</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
   </si>
   <si>
     <t>22222013</t>
+  </si>
+  <si>
+    <t>Anulacion De Venta</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1867,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>12</v>
@@ -1901,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>12</v>
@@ -2289,7 +2289,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>12</v>
@@ -2373,7 +2373,7 @@
         <v>184</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>93</v>
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="9" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>81</v>
@@ -3322,7 +3322,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3451,16 +3451,16 @@
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>110</v>
@@ -3701,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>192</v>
@@ -4013,13 +4013,13 @@
         <v>54</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>53</v>
@@ -4043,7 +4043,7 @@
         <v>78</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P10" s="19"/>
     </row>
@@ -4061,7 +4061,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>85</v>
@@ -4087,7 +4087,7 @@
         <v>195</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>85</v>
@@ -4164,7 +4164,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="46"/>
@@ -4207,13 +4207,13 @@
         <v>116</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>38</v>
@@ -4222,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H16" s="81" t="s">
         <v>98</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="249">
   <si>
     <t>Descripción</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>Anulacion De Venta</t>
+  </si>
+  <si>
+    <t>Amigos Letras</t>
   </si>
 </sst>
 </file>
@@ -3133,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3225,7 +3228,9 @@
       <c r="A4" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C4" s="19" t="s">
         <v>176</v>
       </c>
@@ -3237,7 +3242,9 @@
       <c r="A5" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C5" s="19" t="s">
         <v>176</v>
       </c>
@@ -3249,7 +3256,9 @@
       <c r="A6" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C6" s="19" t="s">
         <v>176</v>
       </c>
@@ -3257,10 +3266,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>181</v>
       </c>
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C7" s="19" t="s">
         <v>176</v>
       </c>
@@ -3268,199 +3280,175 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="79"/>
+    </row>
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B11" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="24"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
@@ -3487,7 +3475,7 @@
     </row>
     <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="57" t="s">
         <v>109</v>
@@ -3496,7 +3484,7 @@
         <v>243</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
@@ -3521,173 +3509,209 @@
       <c r="Y17" s="56"/>
       <c r="Z17" s="56"/>
     </row>
-    <row r="18" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B21" s="23">
         <v>22222011</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B23" s="52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B25" s="52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>110</v>
       </c>
     </row>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="249">
   <si>
     <t>Descripción</t>
   </si>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3552,7 +3552,9 @@
       <c r="B19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="250">
   <si>
     <t>Descripción</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Venta Equipo New OfCom</t>
   </si>
   <si>
-    <t>341309797</t>
-  </si>
-  <si>
     <t>Nom inacion</t>
   </si>
   <si>
@@ -769,6 +766,12 @@
   </si>
   <si>
     <t>Amigos Letras</t>
+  </si>
+  <si>
+    <t>Nominacion</t>
+  </si>
+  <si>
+    <t>2932478631</t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>12</v>
@@ -1904,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>12</v>
@@ -2266,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -2292,7 +2295,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>12</v>
@@ -2373,10 +2376,10 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>93</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2509,10 +2512,10 @@
     </row>
     <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2553,19 +2556,19 @@
     </row>
     <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>20</v>
@@ -2574,13 +2577,13 @@
         <v>22</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" s="64" t="s">
         <v>44</v>
@@ -2597,19 +2600,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>20</v>
@@ -2618,13 +2621,13 @@
         <v>22</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K23" s="64" t="s">
         <v>44</v>
@@ -2638,19 +2641,19 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>20</v>
@@ -2659,13 +2662,13 @@
         <v>22</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K24" s="64" t="s">
         <v>44</v>
@@ -2679,19 +2682,19 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>20</v>
@@ -2700,13 +2703,13 @@
         <v>22</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K25" s="64" t="s">
         <v>44</v>
@@ -2720,19 +2723,19 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>20</v>
@@ -2741,13 +2744,13 @@
         <v>22</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" s="64" t="s">
         <v>44</v>
@@ -2761,19 +2764,19 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>20</v>
@@ -2782,13 +2785,13 @@
         <v>22</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K27" s="64" t="s">
         <v>44</v>
@@ -2802,19 +2805,19 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>20</v>
@@ -2823,13 +2826,13 @@
         <v>22</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I28" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K28" s="64" t="s">
         <v>44</v>
@@ -2843,19 +2846,19 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>20</v>
@@ -2864,13 +2867,13 @@
         <v>22</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I29" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K29" s="64" t="s">
         <v>44</v>
@@ -2884,19 +2887,19 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>20</v>
@@ -2905,13 +2908,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K30" s="64" t="s">
         <v>44</v>
@@ -2925,19 +2928,19 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="64" t="s">
         <v>167</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>20</v>
@@ -2946,13 +2949,13 @@
         <v>22</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I31" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K31" s="64" t="s">
         <v>44</v>
@@ -3138,7 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3204,7 +3207,7 @@
         <v>113</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3218,7 +3221,7 @@
         <v>113</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3226,55 +3229,55 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>87</v>
@@ -3282,13 +3285,13 @@
     </row>
     <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="79"/>
     </row>
@@ -3326,7 +3329,7 @@
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>81</v>
@@ -3335,10 +3338,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3346,7 +3349,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3439,7 +3442,7 @@
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>109</v>
@@ -3475,16 +3478,16 @@
     </row>
     <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
@@ -3511,16 +3514,16 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
@@ -3599,7 +3602,7 @@
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -3631,7 +3634,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>81</v>
@@ -3639,7 +3642,7 @@
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>109</v>
@@ -3679,7 +3682,7 @@
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -3711,7 +3714,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>110</v>
@@ -3811,7 +3814,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>98</v>
@@ -3820,7 +3823,7 @@
         <v>85</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>50</v>
@@ -3835,7 +3838,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
@@ -3882,7 +3885,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>136</v>
@@ -3891,7 +3894,7 @@
         <v>135</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>87</v>
@@ -3906,7 +3909,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>101</v>
@@ -3931,7 +3934,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>115</v>
@@ -3944,10 +3947,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
@@ -4027,25 +4030,25 @@
     </row>
     <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>193</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>53</v>
@@ -4069,25 +4072,25 @@
         <v>78</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="D11" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>85</v>
@@ -4101,19 +4104,19 @@
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>195</v>
-      </c>
       <c r="E12" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>85</v>
@@ -4190,7 +4193,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="46"/>
@@ -4207,13 +4210,13 @@
     </row>
     <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="46"/>
@@ -4233,13 +4236,13 @@
         <v>116</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="80" t="s">
         <v>235</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>236</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>38</v>
@@ -4248,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" s="81" t="s">
         <v>98</v>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -771,7 +771,7 @@
     <t>Nominacion</t>
   </si>
   <si>
-    <t>2932478631</t>
+    <t>2932477533</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1133,6 +1133,7 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1527,7 +1528,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2515,7 @@
       <c r="A21" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="85" t="s">
         <v>249</v>
       </c>
       <c r="C21" s="40">
@@ -4283,10 +4284,10 @@
       <c r="Q16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="85" t="s">
+      <c r="R16" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="S16" s="85"/>
+      <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -631,7 +631,7 @@
     <t xml:space="preserve">22222006</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion Reseteo de Clave</t>
+    <t xml:space="preserve">Gestion Reseteo Clave</t>
   </si>
   <si>
     <t xml:space="preserve">Reseteo De Clave</t>
@@ -789,7 +789,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -811,13 +811,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -979,7 +972,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1003,16 +996,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="79">
@@ -1020,55 +1005,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1076,15 +1061,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1092,19 +1077,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,15 +1097,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,7 +1113,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,15 +1121,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,7 +1137,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,188 +1145,186 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2" xfId="22" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -1425,9 +1408,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1528,22 +1511,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3157,7 +3140,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3167,14 +3150,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3799,14 +3782,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="274">
   <si>
     <t>Descripción</t>
   </si>
@@ -772,6 +772,78 @@
   </si>
   <si>
     <t>2932477533</t>
+  </si>
+  <si>
+    <t>Gestion Reseteo Clave</t>
+  </si>
+  <si>
+    <t>Reseteo De Clave</t>
+  </si>
+  <si>
+    <t>37654318</t>
+  </si>
+  <si>
+    <t>Gestion Busqueda</t>
+  </si>
+  <si>
+    <t>DocumentacionValida</t>
+  </si>
+  <si>
+    <t>DocumentacionInvalida</t>
+  </si>
+  <si>
+    <t>Gestion Vista360</t>
+  </si>
+  <si>
+    <t>VistaDocumentacion</t>
+  </si>
+  <si>
+    <t>11322145</t>
+  </si>
+  <si>
+    <t>1000000026310001</t>
+  </si>
+  <si>
+    <t>9900000766810007</t>
+  </si>
+  <si>
+    <t>Cinco</t>
+  </si>
+  <si>
+    <t>Pato</t>
+  </si>
+  <si>
+    <t>Cinco Newton</t>
+  </si>
+  <si>
+    <t>cinconewton@gmail.com</t>
+  </si>
+  <si>
+    <t>angel.leon@gmail.com</t>
+  </si>
+  <si>
+    <t>12345670</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>N° De Cuenta</t>
+  </si>
+  <si>
+    <t>Libreta de Enrolamiento</t>
+  </si>
+  <si>
+    <t>Razon Social</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>26777899</t>
+  </si>
+  <si>
+    <t>SaldoConsulta</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1063,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1135,6 +1207,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1527,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -3140,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3721,6 +3808,214 @@
         <v>110</v>
       </c>
     </row>
+    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+    </row>
+    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3731,7 +4026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="275">
   <si>
     <t>Descripción</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>SaldoConsulta</t>
+  </si>
+  <si>
+    <t>Productos y Servicios</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1206,7 +1209,6 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,6 +1224,8 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3227,10 +3231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3847,8 +3851,8 @@
       <c r="B29" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
@@ -3872,147 +3876,179 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="56"/>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H32" t="s">
-        <v>264</v>
-      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>262</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-    </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+    </row>
+    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>257</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4579,10 +4615,10 @@
       <c r="Q16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="86" t="s">
+      <c r="R16" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="S16" s="86"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="279">
   <si>
     <t>Descripción</t>
   </si>
@@ -847,6 +847,18 @@
   </si>
   <si>
     <t>Productos y Servicios</t>
+  </si>
+  <si>
+    <t>packTelefonicoInternacional30SMS</t>
+  </si>
+  <si>
+    <t>6567765</t>
+  </si>
+  <si>
+    <t>2932440242</t>
+  </si>
+  <si>
+    <t>Pack internacional 30 SMS al Resto del Mundo</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1236,8 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3233,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3877,7 +3889,7 @@
       <c r="Z29" s="56"/>
     </row>
     <row r="30" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="93" t="s">
         <v>274</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4060,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4408,35 +4420,57 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>194</v>
+        <v>277</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>278</v>
       </c>
       <c r="E11" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>102</v>
+      <c r="G11" s="79" t="s">
+        <v>231</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="I11" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>191</v>
@@ -4460,95 +4494,98 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M14" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N14" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="46"/>
@@ -4563,191 +4600,214 @@
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B17" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D17" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E17" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F17" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G17" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="81" t="s">
+      <c r="H17" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I17" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J17" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="80" t="s">
+      <c r="K17" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="82" t="s">
+      <c r="L17" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="82" t="s">
+      <c r="N17" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="93" t="s">
+      <c r="R17" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="S16" s="93"/>
-    </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="S17" s="94"/>
+    </row>
+    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="61"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B20" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C20" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H21" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K21" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="280">
   <si>
     <t>Descripción</t>
   </si>
@@ -859,6 +859,9 @@
   </si>
   <si>
     <t>Pack internacional 30 SMS al Resto del Mundo</t>
+  </si>
+  <si>
+    <t>Vista 360</t>
   </si>
 </sst>
 </file>
@@ -3243,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4064,6 +4067,17 @@
         <v>109</v>
       </c>
     </row>
+    <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4074,7 +4088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:O11"/>
     </sheetView>
   </sheetViews>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="284">
   <si>
     <t>Descripción</t>
   </si>
@@ -261,9 +261,6 @@
     <t>22222000</t>
   </si>
   <si>
-    <t>2944675417</t>
-  </si>
-  <si>
     <t>Newton</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>001</t>
   </si>
   <si>
-    <t>2944675396</t>
-  </si>
-  <si>
     <t>Linea Equipo Existe SPU</t>
   </si>
   <si>
@@ -862,6 +856,24 @@
   </si>
   <si>
     <t>Vista 360</t>
+  </si>
+  <si>
+    <t>22222041</t>
+  </si>
+  <si>
+    <t>2932550032</t>
+  </si>
+  <si>
+    <t>22222002</t>
+  </si>
+  <si>
+    <t>N° de Linea</t>
+  </si>
+  <si>
+    <t>Gestion Historia De Recarga</t>
+  </si>
+  <si>
+    <t>RecargaHistoria</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1093,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1240,6 +1252,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1633,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1670,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1686,46 +1700,46 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="N1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="X1" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1874,7 +1888,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>65</v>
@@ -1910,19 +1924,19 @@
         <v>45</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R5" s="72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
@@ -1933,7 +1947,7 @@
     </row>
     <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1942,19 +1956,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1977,28 +1991,28 @@
     </row>
     <row r="7" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -2014,7 +2028,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>12</v>
@@ -2033,7 +2047,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -2057,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -2066,46 +2080,46 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="O9" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="Y9" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2135,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J10" s="77" t="s">
         <v>76</v>
@@ -2157,7 +2171,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>71</v>
@@ -2181,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>76</v>
@@ -2193,25 +2207,25 @@
         <v>44</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>50</v>
@@ -2232,28 +2246,28 @@
     </row>
     <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J12" s="45" t="s">
         <v>76</v>
@@ -2265,7 +2279,7 @@
         <v>44</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>45</v>
@@ -2282,7 +2296,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -2303,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>76</v>
@@ -2315,7 +2329,7 @@
         <v>44</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>45</v>
@@ -2325,7 +2339,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2334,22 +2348,22 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2376,13 +2390,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
@@ -2399,16 +2413,16 @@
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="69" t="s">
         <v>38</v>
@@ -2429,7 +2443,7 @@
     </row>
     <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2450,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2459,13 +2473,13 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="37"/>
@@ -2483,34 +2497,34 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>85</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="I18" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="J18" s="46" t="s">
         <v>88</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
@@ -2521,7 +2535,7 @@
     </row>
     <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>71</v>
@@ -2542,7 +2556,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>76</v>
@@ -2565,7 +2579,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2595,13 +2609,13 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="37"/>
@@ -2619,10 +2633,10 @@
     </row>
     <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C21" s="40">
         <v>22222020</v>
@@ -2663,19 +2677,19 @@
     </row>
     <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>20</v>
@@ -2684,13 +2698,13 @@
         <v>22</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K22" s="64" t="s">
         <v>44</v>
@@ -2707,19 +2721,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>20</v>
@@ -2728,13 +2742,13 @@
         <v>22</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K23" s="64" t="s">
         <v>44</v>
@@ -2748,19 +2762,19 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>20</v>
@@ -2769,13 +2783,13 @@
         <v>22</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K24" s="64" t="s">
         <v>44</v>
@@ -2789,19 +2803,19 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>20</v>
@@ -2810,13 +2824,13 @@
         <v>22</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K25" s="64" t="s">
         <v>44</v>
@@ -2830,19 +2844,19 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>20</v>
@@ -2851,13 +2865,13 @@
         <v>22</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I26" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K26" s="64" t="s">
         <v>44</v>
@@ -2871,19 +2885,19 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>20</v>
@@ -2892,13 +2906,13 @@
         <v>22</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I27" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="64" t="s">
         <v>44</v>
@@ -2912,19 +2926,19 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>20</v>
@@ -2933,13 +2947,13 @@
         <v>22</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I28" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K28" s="64" t="s">
         <v>44</v>
@@ -2953,19 +2967,19 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>20</v>
@@ -2974,13 +2988,13 @@
         <v>22</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I29" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K29" s="64" t="s">
         <v>44</v>
@@ -2994,19 +3008,19 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>20</v>
@@ -3015,13 +3029,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K30" s="64" t="s">
         <v>44</v>
@@ -3035,19 +3049,19 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>20</v>
@@ -3056,13 +3070,13 @@
         <v>22</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I31" s="67" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K31" s="64" t="s">
         <v>44</v>
@@ -3246,10 +3260,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3279,10 +3293,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3311,10 +3325,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3325,10 +3339,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3336,75 +3350,75 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -3436,19 +3450,19 @@
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3456,18 +3470,18 @@
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -3495,36 +3509,38 @@
     </row>
     <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>148</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3549,10 +3565,10 @@
     </row>
     <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>74</v>
@@ -3585,18 +3601,20 @@
     </row>
     <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
@@ -3621,18 +3639,20 @@
     </row>
     <row r="18" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" s="54"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
@@ -3660,16 +3680,19 @@
         <v>73</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="21"/>
+      <c r="E19" s="95">
+        <v>54342122</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -3701,15 +3724,16 @@
     </row>
     <row r="21" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="23">
-        <v>22222011</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B21" s="95">
+        <v>54342122</v>
+      </c>
+      <c r="C21" s="79"/>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -3741,15 +3765,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -3781,15 +3805,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -3821,15 +3845,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -3861,10 +3885,10 @@
     </row>
     <row r="29" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="91"/>
       <c r="D29" s="92"/>
@@ -3893,10 +3917,10 @@
     </row>
     <row r="30" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C30" s="91"/>
       <c r="D30" s="92"/>
@@ -3925,21 +3949,21 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
@@ -3948,13 +3972,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -3977,59 +4001,59 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" t="s">
         <v>259</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="E33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" t="s">
-        <v>263</v>
-      </c>
       <c r="H33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" t="s">
         <v>260</v>
       </c>
-      <c r="D34" t="s">
-        <v>262</v>
-      </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -4061,21 +4085,37 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4086,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4104,49 +4144,49 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -4163,25 +4203,25 @@
     </row>
     <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>50</v>
@@ -4196,13 +4236,13 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>53</v>
@@ -4214,13 +4254,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -4234,48 +4274,48 @@
     </row>
     <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="23">
         <v>22222003</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -4292,10 +4332,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
@@ -4305,17 +4345,17 @@
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -4324,40 +4364,40 @@
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="O8" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4374,13 +4414,13 @@
     </row>
     <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>54</v>
@@ -4388,31 +4428,31 @@
     </row>
     <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>50</v>
@@ -4430,37 +4470,37 @@
         <v>78</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="D11" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>278</v>
-      </c>
       <c r="E11" s="79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>50</v>
@@ -4478,31 +4518,31 @@
         <v>78</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>194</v>
-      </c>
       <c r="E12" s="79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>53</v>
@@ -4510,25 +4550,25 @@
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>194</v>
-      </c>
       <c r="E13" s="79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>53</v>
@@ -4536,7 +4576,7 @@
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -4545,37 +4585,37 @@
         <v>26</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="G14" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="M14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="N14" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="4"/>
@@ -4593,13 +4633,13 @@
     </row>
     <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="46"/>
@@ -4616,13 +4656,13 @@
     </row>
     <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="46"/>
@@ -4639,16 +4679,16 @@
     </row>
     <row r="17" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E17" s="83" t="s">
         <v>38</v>
@@ -4657,22 +4697,22 @@
         <v>39</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K17" s="80" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>50</v>
@@ -4689,14 +4729,14 @@
       <c r="Q17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="94"/>
+      <c r="R17" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="S17" s="96"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -4705,37 +4745,37 @@
         <v>26</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="G18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="M18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="N18" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="4"/>
@@ -4755,11 +4795,11 @@
       <c r="A19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>78</v>
+      <c r="B19" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="D19" s="61"/>
     </row>
@@ -4767,38 +4807,38 @@
       <c r="A20" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>90</v>
+      <c r="B20" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="94">
+        <v>2944675128</v>
       </c>
       <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>90</v>
+        <v>278</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>279</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>50</v>
@@ -4816,8 +4856,11 @@
         <v>78</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xappia\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4725" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="277">
   <si>
     <t>Descripción</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Alta Linea Agente</t>
   </si>
   <si>
-    <t>Tom Riddle</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
     <t>22222000</t>
   </si>
   <si>
+    <t>2944675417</t>
+  </si>
+  <si>
     <t>Newton</t>
   </si>
   <si>
@@ -291,6 +291,9 @@
     <t>001</t>
   </si>
   <si>
+    <t>2944675396</t>
+  </si>
+  <si>
     <t>Linea Equipo Existe SPU</t>
   </si>
   <si>
@@ -534,9 +537,6 @@
     <t>2944675250</t>
   </si>
   <si>
-    <t>450799000000</t>
-  </si>
-  <si>
     <t>19784521</t>
   </si>
   <si>
@@ -846,34 +846,13 @@
     <t>packTelefonicoInternacional30SMS</t>
   </si>
   <si>
+    <t>Pack internacional 30 SMS al Resto del Mundo</t>
+  </si>
+  <si>
     <t>6567765</t>
   </si>
   <si>
     <t>2932440242</t>
-  </si>
-  <si>
-    <t>Pack internacional 30 SMS al Resto del Mundo</t>
-  </si>
-  <si>
-    <t>Vista 360</t>
-  </si>
-  <si>
-    <t>22222041</t>
-  </si>
-  <si>
-    <t>2932550032</t>
-  </si>
-  <si>
-    <t>22222002</t>
-  </si>
-  <si>
-    <t>N° de Linea</t>
-  </si>
-  <si>
-    <t>Gestion Historia De Recarga</t>
-  </si>
-  <si>
-    <t>RecargaHistoria</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1072,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,9 +1105,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1252,8 +1228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1550,16 +1524,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="14" width="11.5546875" customWidth="1"/>
-    <col min="15" max="26" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,17 +1569,17 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1589,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1599,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1647,30 +1621,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1700,254 +1674,254 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="46" t="s">
+      <c r="M2" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="P2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="44" t="s">
+    </row>
+    <row r="3" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-    </row>
-    <row r="4" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="M3" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+    </row>
+    <row r="4" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="E4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="45"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+    </row>
+    <row r="5" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="D5" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="45" t="s">
+      <c r="F5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="45" t="s">
+      <c r="I5" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="46" t="s">
+      <c r="M5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="33" t="s">
+      <c r="N5" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1956,19 +1930,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1976,8 +1950,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1989,65 +1963,65 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:26" s="43" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="45" t="s">
+      <c r="F7" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -2071,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -2080,107 +2054,107 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+    <row r="10" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="E10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="77" t="s">
+      <c r="I10" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N10" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -2189,120 +2163,120 @@
         <v>22</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="18"/>
+    </row>
+    <row r="12" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="H12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="L12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" s="18"/>
-    </row>
-    <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2311,35 +2285,35 @@
         <v>22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>105</v>
+      <c r="I13" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="L13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2348,22 +2322,22 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2372,8 +2346,8 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2385,9 +2359,9 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>223</v>
@@ -2396,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
@@ -2404,46 +2378,46 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="38"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="61" t="s">
+    <row r="16" spans="1:26" s="43" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2464,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2473,17 +2447,17 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2495,97 +2469,97 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="70" t="s">
+      <c r="C18" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="46" t="s">
+      <c r="F18" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-    </row>
-    <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+    </row>
+    <row r="19" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="E19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="45" t="s">
+      <c r="H19" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>13</v>
@@ -2609,17 +2583,17 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2631,612 +2605,612 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <v>22222020</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="63" t="s">
+      <c r="M21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="B23" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G23" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H23" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="F24" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J24" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="I25" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="64" t="s">
+      <c r="M25" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="B26" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G26" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H26" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="F27" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J27" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="64" t="s">
+      <c r="I28" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="64" t="s">
+      <c r="M28" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="B29" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G29" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H29" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="67" t="s">
+      <c r="F30" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J30" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="I31" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="64" t="s">
+      <c r="M31" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3260,31 +3234,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.109375" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3293,10 +3267,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3320,105 +3294,105 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>1161138551</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>1161138552</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:26" s="78" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="78" t="s">
         <v>245</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="79"/>
-    </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="78"/>
+    </row>
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -3448,8 +3422,8 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:26" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>237</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -3458,30 +3432,30 @@
       <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:26" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -3507,40 +3481,38 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:26" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:26" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>148</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3563,136 +3535,129 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-    </row>
-    <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+    </row>
+    <row r="17" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-    </row>
-    <row r="18" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+    </row>
+    <row r="18" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-    </row>
-    <row r="19" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>73</v>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+    </row>
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="95">
-        <v>54342122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -3722,16 +3687,15 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="95">
-        <v>54342122</v>
-      </c>
-      <c r="C21" s="79"/>
-    </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="22">
+        <v>22222011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
@@ -3763,15 +3727,15 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>225</v>
       </c>
@@ -3803,15 +3767,15 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>226</v>
       </c>
@@ -3843,15 +3807,15 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>248</v>
       </c>
@@ -3883,71 +3847,71 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>249</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-    </row>
-    <row r="30" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93" t="s">
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+    </row>
+    <row r="30" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="92" t="s">
         <v>272</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -3955,7 +3919,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
@@ -3999,12 +3963,12 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>252</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>257</v>
@@ -4025,7 +3989,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -4051,71 +4015,44 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-    </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+    </row>
+    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>255</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>277</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4126,67 +4063,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>118</v>
+      <c r="C1" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -4201,148 +4138,148 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>106</v>
+    <row r="2" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>43</v>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="3" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="23">
+        <v>114</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
         <v>22222003</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>95</v>
+      <c r="C4" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>41</v>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>42</v>
+        <v>114</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>189</v>
@@ -4350,54 +4287,54 @@
       <c r="C7" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4412,22 +4349,22 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>131</v>
+    <row r="9" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>228</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -4436,186 +4373,185 @@
       <c r="C10" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="34" t="s">
+      <c r="H10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="L10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>31</v>
+      <c r="M10" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>227</v>
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>273</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="E11" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="C12" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="D12" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="34" t="s">
+      <c r="G12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    </row>
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="C13" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E13" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F13" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="4"/>
@@ -4631,151 +4567,151 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="H17" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="80" t="s">
+      <c r="H17" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="S17" s="96"/>
-    </row>
-    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="93"/>
+    </row>
+    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="4"/>
@@ -4791,76 +4727,73 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="94">
-        <v>2944675128</v>
-      </c>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="60"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C24" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Chardin\Git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Fan\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="288">
   <si>
     <t>Descripción</t>
   </si>
@@ -874,6 +874,18 @@
   </si>
   <si>
     <t>RecargaHistoria</t>
+  </si>
+  <si>
+    <t>packDe1dIaPersonal</t>
+  </si>
+  <si>
+    <t>22225062</t>
+  </si>
+  <si>
+    <t>2932550231</t>
+  </si>
+  <si>
+    <t>Pack SMS y Minutos a Personal Ilimitados x 1 día</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4126,10 +4138,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4426,26 +4438,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>54</v>
+        <v>286</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>287</v>
       </c>
       <c r="E10" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="79" t="s">
         <v>229</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -4472,28 +4484,27 @@
       <c r="O10" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>276</v>
+        <v>190</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="78" t="s">
         <v>229</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4522,9 +4533,9 @@
       </c>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>274</v>
@@ -4532,25 +4543,47 @@
       <c r="C12" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>192</v>
+      <c r="D12" s="79" t="s">
+        <v>276</v>
       </c>
       <c r="E12" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>100</v>
+      <c r="G12" s="79" t="s">
+        <v>229</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="I12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>274</v>
@@ -4574,95 +4607,98 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J15" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N15" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="46"/>
@@ -4677,194 +4713,217 @@
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+    </row>
+    <row r="18" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D18" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E18" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F18" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G18" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H18" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I18" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="J18" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="K18" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="82" t="s">
+      <c r="L18" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="82" t="s">
+      <c r="N18" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="96" t="s">
+      <c r="R18" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="S17" s="96"/>
-    </row>
-    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="S18" s="96"/>
+    </row>
+    <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K19" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M19" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="61"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C21" s="94">
         <v>2944675128</v>
       </c>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="D21" s="61"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C22" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D22" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E22" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J22" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K22" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M22" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N22" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C24" s="95"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="289">
   <si>
     <t>Descripción</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Gestion Suspension/Rehabilitacion</t>
   </si>
   <si>
-    <t>Cuenta/Plan</t>
-  </si>
-  <si>
     <t>Gestion Ajustes</t>
   </si>
   <si>
@@ -886,13 +883,19 @@
   </si>
   <si>
     <t>Pack SMS y Minutos a Personal Ilimitados x 1 día</t>
+  </si>
+  <si>
+    <t>22222008</t>
+  </si>
+  <si>
+    <t>2944675325</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -966,12 +969,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1105,7 +1102,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,9 +1149,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1164,7 +1158,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1202,8 +1196,8 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1225,12 +1219,12 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1245,7 +1239,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +1676,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1712,13 +1706,13 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>119</v>
@@ -1756,210 +1750,210 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-    </row>
-    <row r="4" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+    </row>
+    <row r="4" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="N4" s="45"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+    </row>
+    <row r="5" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="72" t="s">
+      <c r="R5" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1977,10 +1971,10 @@
         <v>121</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1988,8 +1982,8 @@
       <c r="L6" s="14"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -2001,65 +1995,65 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:26" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -2083,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -2092,13 +2086,13 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>119</v>
@@ -2135,51 +2129,51 @@
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+    <row r="10" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="77" t="s">
+      <c r="N10" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2206,7 +2200,7 @@
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>105</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -2219,92 +2213,92 @@
         <v>44</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="24" t="s">
         <v>96</v>
       </c>
       <c r="P11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="24" t="s">
         <v>100</v>
       </c>
       <c r="R11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="28" t="s">
+      <c r="S11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="W11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="41" t="s">
+      <c r="X11" s="40" t="s">
         <v>39</v>
       </c>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="44" t="s">
         <v>77</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2328,7 +2322,7 @@
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>105</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -2341,7 +2335,7 @@
         <v>44</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>45</v>
@@ -2351,7 +2345,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2360,7 +2354,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>119</v>
@@ -2372,10 +2366,10 @@
         <v>121</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2384,8 +2378,8 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2402,7 +2396,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -2416,46 +2410,46 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="38"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:26" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:26" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:26" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2476,7 +2470,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2485,17 +2479,17 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2507,91 +2501,91 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="46" t="s">
+    <row r="18" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-    </row>
-    <row r="19" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+    </row>
+    <row r="19" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2621,17 +2615,17 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2643,612 +2637,612 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <v>22222020</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="F22" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D23" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E23" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="I23" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G24" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H24" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="K24" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="64" t="s">
+      <c r="J25" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="64" t="s">
+      <c r="L25" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="64" t="s">
+      <c r="M25" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="64" t="s">
+      <c r="F26" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="I26" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G27" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H27" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="K27" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="64" t="s">
+      <c r="J28" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="64" t="s">
+      <c r="L28" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="64" t="s">
+      <c r="M28" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="64" t="s">
+      <c r="F29" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="I29" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G30" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H30" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="67" t="s">
+      <c r="K30" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="64" t="s">
+      <c r="J31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L31" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="64" t="s">
+      <c r="M31" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" s="64" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3274,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3334,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3354,7 +3348,7 @@
         <v>111</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3362,71 +3356,71 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="78" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
-        <v>245</v>
+      <c r="A8" s="78" t="s">
+        <v>244</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="79"/>
+      <c r="C8" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="78"/>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -3461,8 +3455,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
-        <v>237</v>
+      <c r="A10" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>80</v>
@@ -3471,29 +3465,29 @@
         <v>23</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -3520,38 +3514,43 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="24"/>
+        <v>287</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="C14" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3575,11 +3574,11 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="57" t="s">
+    <row r="16" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -3588,107 +3587,107 @@
       <c r="D16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-    </row>
-    <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="57" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+    </row>
+    <row r="17" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-    </row>
-    <row r="18" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="57" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+    </row>
+    <row r="18" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+        <v>241</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -3698,13 +3697,13 @@
         <v>113</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="95">
+      <c r="E19" s="94">
         <v>54342122</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -3738,14 +3737,14 @@
       <c r="A21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="94">
         <v>54342122</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="78"/>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -3777,15 +3776,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -3817,15 +3816,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -3857,7 +3856,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>108</v>
@@ -3865,7 +3864,7 @@
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -3895,87 +3894,87 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-    </row>
-    <row r="30" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93" t="s">
-        <v>272</v>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+    </row>
+    <row r="30" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="92" t="s">
+        <v>271</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
+        <v>269</v>
+      </c>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
@@ -3984,13 +3983,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4013,91 +4012,91 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" t="s">
         <v>261</v>
-      </c>
-      <c r="H33" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>107</v>
@@ -4105,18 +4104,18 @@
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -4124,7 +4123,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>107</v>
@@ -4140,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4161,7 +4160,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -4224,16 +4223,16 @@
         <v>95</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>170</v>
+      <c r="G2" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>50</v>
@@ -4248,18 +4247,18 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>100</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="34"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
@@ -4285,7 +4284,7 @@
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="23">
@@ -4295,7 +4294,7 @@
         <v>95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>134</v>
@@ -4304,7 +4303,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>86</v>
@@ -4319,7 +4318,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>99</v>
@@ -4332,7 +4331,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="21"/>
@@ -4340,11 +4339,11 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>113</v>
@@ -4353,14 +4352,14 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
@@ -4372,7 +4371,7 @@
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -4425,7 +4424,7 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -4438,41 +4437,41 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="79" t="s">
+      <c r="E10" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="79" t="s">
-        <v>229</v>
+      <c r="G10" s="78" t="s">
+        <v>228</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M10" s="21" t="s">
@@ -4482,44 +4481,44 @@
         <v>78</v>
       </c>
       <c r="O10" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>228</v>
-      </c>
       <c r="B11" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="79" t="s">
-        <v>230</v>
+      <c r="E11" s="78" t="s">
+        <v>229</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="78" t="s">
-        <v>229</v>
+      <c r="G11" s="77" t="s">
+        <v>228</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M11" s="21" t="s">
@@ -4529,45 +4528,45 @@
         <v>78</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:27" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="79" t="s">
+      <c r="E12" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="79" t="s">
-        <v>229</v>
+      <c r="G12" s="78" t="s">
+        <v>228</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -4577,30 +4576,30 @@
         <v>78</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>188</v>
+      <c r="A13" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>275</v>
-      </c>
       <c r="D13" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>230</v>
+        <v>191</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>229</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -4608,25 +4607,25 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>230</v>
+      <c r="E14" s="78" t="s">
+        <v>229</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -4640,7 +4639,7 @@
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4690,93 +4689,93 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-    </row>
-    <row r="18" spans="1:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="80" t="s">
+      <c r="E18" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="80" t="s">
+      <c r="K18" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="81" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="82" t="s">
+      <c r="N18" s="81" t="s">
         <v>51</v>
       </c>
       <c r="O18" s="11" t="s">
@@ -4788,10 +4787,10 @@
       <c r="Q18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="96" t="s">
+      <c r="R18" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="S18" s="96"/>
+      <c r="S18" s="95"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -4800,7 +4799,7 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -4850,62 +4849,62 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="D20" s="60"/>
+    </row>
+    <row r="21" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="94">
+      <c r="C21" s="93">
         <v>2944675128</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>100</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="33" t="s">
         <v>52</v>
       </c>
       <c r="L22" s="21" t="s">
@@ -4919,7 +4918,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C25" s="95"/>
+      <c r="C25" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="292">
   <si>
     <t>Descripción</t>
   </si>
@@ -889,6 +889,15 @@
   </si>
   <si>
     <t>2944675325</t>
+  </si>
+  <si>
+    <t>packUruguay</t>
+  </si>
+  <si>
+    <t>22225061</t>
+  </si>
+  <si>
+    <t>2932550219</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1111,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,6 +1270,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3268,7 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4137,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4580,35 +4592,29 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>273</v>
@@ -4632,95 +4638,98 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G16" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I16" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="45"/>
@@ -4735,194 +4744,217 @@
       <c r="N17" s="34"/>
       <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D19" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E19" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F19" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G19" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H19" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I19" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="83" t="s">
+      <c r="J19" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K19" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="81" t="s">
+      <c r="L19" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="81" t="s">
+      <c r="N19" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="95" t="s">
+      <c r="R19" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="S18" s="95"/>
-    </row>
-    <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="S19" s="95"/>
+    </row>
+    <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J20" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L20" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M20" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="60"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="60"/>
+    </row>
+    <row r="22" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C22" s="93">
         <v>2944675128</v>
       </c>
-      <c r="D21" s="60"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
+      <c r="D22" s="60"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B23" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C23" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H23" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C25" s="94"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="294">
   <si>
     <t>Descripción</t>
   </si>
@@ -246,12 +246,6 @@
     <t>ProblemaRecargas</t>
   </si>
   <si>
-    <t>11120000000212</t>
-  </si>
-  <si>
-    <t>0818</t>
-  </si>
-  <si>
     <t>Río Negro</t>
   </si>
   <si>
@@ -741,15 +735,6 @@
     <t>ProblemaRecargaAyD</t>
   </si>
   <si>
-    <t>11120000001689</t>
-  </si>
-  <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
     <t>22222013</t>
   </si>
   <si>
@@ -898,6 +883,27 @@
   </si>
   <si>
     <t>2932550219</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0566</t>
+  </si>
+  <si>
+    <t>0884</t>
+  </si>
+  <si>
+    <t>11120000001623</t>
+  </si>
+  <si>
+    <t>11120000001622</t>
+  </si>
+  <si>
+    <t>11120000001621</t>
+  </si>
+  <si>
+    <t>Renovacion Cuota Con TC Con Saldo</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1275,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1688,7 +1694,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1718,46 +1724,46 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="N1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="X1" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1788,10 +1794,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>44</v>
@@ -1838,10 +1844,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>44</v>
@@ -1882,10 +1888,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="44" t="s">
         <v>44</v>
@@ -1906,7 +1912,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>65</v>
@@ -1942,19 +1948,19 @@
         <v>45</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>53</v>
       </c>
       <c r="R5" s="71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
@@ -1965,7 +1971,7 @@
     </row>
     <row r="6" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -1974,19 +1980,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2009,28 +2015,28 @@
     </row>
     <row r="7" spans="1:26" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -2046,7 +2052,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>12</v>
@@ -2065,7 +2071,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -2089,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -2098,46 +2104,46 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="O9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="S9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="Y9" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2167,13 +2173,13 @@
         <v>12</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" s="73" t="s">
         <v>44</v>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>71</v>
@@ -2213,37 +2219,37 @@
         <v>12</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>50</v>
@@ -2264,40 +2270,40 @@
     </row>
     <row r="12" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="69" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>45</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -2335,19 +2341,19 @@
         <v>12</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>45</v>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -2366,22 +2372,22 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>25</v>
@@ -2408,13 +2414,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
@@ -2431,16 +2437,16 @@
     </row>
     <row r="16" spans="1:26" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="68" t="s">
         <v>38</v>
@@ -2461,7 +2467,7 @@
     </row>
     <row r="17" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
@@ -2482,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -2491,13 +2497,13 @@
         <v>25</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="36"/>
@@ -2515,34 +2521,34 @@
     </row>
     <row r="18" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="J18" s="45" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>88</v>
       </c>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
@@ -2553,7 +2559,7 @@
     </row>
     <row r="19" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>71</v>
@@ -2574,13 +2580,13 @@
         <v>59</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>44</v>
@@ -2597,7 +2603,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2627,13 +2633,13 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="36"/>
@@ -2651,10 +2657,10 @@
     </row>
     <row r="21" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C21" s="39">
         <v>22222020</v>
@@ -2675,10 +2681,10 @@
         <v>21</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>44</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="22" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F22" s="63" t="s">
         <v>20</v>
@@ -2716,13 +2722,13 @@
         <v>22</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I22" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K22" s="63" t="s">
         <v>44</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" s="63" t="s">
         <v>20</v>
@@ -2760,13 +2766,13 @@
         <v>22</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I23" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K23" s="63" t="s">
         <v>44</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" s="63" t="s">
         <v>20</v>
@@ -2801,13 +2807,13 @@
         <v>22</v>
       </c>
       <c r="H24" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I24" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K24" s="63" t="s">
         <v>44</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="63" t="s">
         <v>20</v>
@@ -2842,13 +2848,13 @@
         <v>22</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I25" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K25" s="63" t="s">
         <v>44</v>
@@ -2862,19 +2868,19 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F26" s="63" t="s">
         <v>20</v>
@@ -2883,13 +2889,13 @@
         <v>22</v>
       </c>
       <c r="H26" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I26" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K26" s="63" t="s">
         <v>44</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27" s="63" t="s">
         <v>20</v>
@@ -2924,13 +2930,13 @@
         <v>22</v>
       </c>
       <c r="H27" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I27" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K27" s="63" t="s">
         <v>44</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="63" t="s">
         <v>20</v>
@@ -2965,13 +2971,13 @@
         <v>22</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I28" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K28" s="63" t="s">
         <v>44</v>
@@ -2985,19 +2991,19 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" s="63" t="s">
         <v>20</v>
@@ -3006,13 +3012,13 @@
         <v>22</v>
       </c>
       <c r="H29" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I29" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K29" s="63" t="s">
         <v>44</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F30" s="63" t="s">
         <v>20</v>
@@ -3047,13 +3053,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I30" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K30" s="63" t="s">
         <v>44</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>20</v>
@@ -3088,13 +3094,13 @@
         <v>22</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I31" s="66" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K31" s="63" t="s">
         <v>44</v>
@@ -3280,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3308,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3311,10 +3317,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3343,10 +3349,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3357,10 +3363,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3368,75 +3374,75 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="78" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="78"/>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -3468,19 +3474,19 @@
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,18 +3494,18 @@
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -3527,42 +3533,42 @@
     </row>
     <row r="13" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3588,18 +3594,20 @@
     </row>
     <row r="16" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>289</v>
+      </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
@@ -3624,19 +3632,19 @@
     </row>
     <row r="17" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -3662,19 +3670,19 @@
     </row>
     <row r="18" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -3703,10 +3711,10 @@
         <v>73</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="94">
@@ -3715,7 +3723,7 @@
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -3747,7 +3755,7 @@
     </row>
     <row r="21" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="94">
         <v>54342122</v>
@@ -3756,7 +3764,7 @@
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -3788,15 +3796,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -3828,15 +3836,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -3868,15 +3876,15 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -3908,10 +3916,10 @@
     </row>
     <row r="29" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="91"/>
@@ -3940,10 +3948,10 @@
     </row>
     <row r="30" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="92" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C30" s="90"/>
       <c r="D30" s="91"/>
@@ -3972,21 +3980,21 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
@@ -3995,13 +4003,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4024,59 +4032,59 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" t="s">
         <v>256</v>
-      </c>
-      <c r="D33" t="s">
-        <v>258</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G33" t="s">
-        <v>260</v>
-      </c>
-      <c r="H33" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" t="s">
         <v>257</v>
-      </c>
-      <c r="D34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" t="s">
-        <v>259</v>
-      </c>
-      <c r="H34" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -4108,26 +4116,26 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -4135,10 +4143,10 @@
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4160,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4167,49 +4175,49 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -4226,25 +4234,25 @@
     </row>
     <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>50</v>
@@ -4259,13 +4267,13 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>53</v>
@@ -4277,13 +4285,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -4297,48 +4305,48 @@
     </row>
     <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="23">
         <v>22222003</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -4355,10 +4363,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
@@ -4368,17 +4376,17 @@
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -4387,40 +4395,40 @@
         <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="O8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4437,13 +4445,13 @@
     </row>
     <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>54</v>
@@ -4451,31 +4459,31 @@
     </row>
     <row r="10" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>50</v>
@@ -4490,39 +4498,39 @@
         <v>31</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>50</v>
@@ -4537,40 +4545,40 @@
         <v>31</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>50</v>
@@ -4585,22 +4593,22 @@
         <v>31</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
@@ -4608,31 +4616,31 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>53</v>
@@ -4640,25 +4648,25 @@
     </row>
     <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>53</v>
@@ -4666,7 +4674,7 @@
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -4675,37 +4683,37 @@
         <v>26</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="G16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="I16" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="N16" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="4"/>
@@ -4723,13 +4731,13 @@
     </row>
     <row r="17" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="45"/>
@@ -4746,13 +4754,13 @@
     </row>
     <row r="18" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="45"/>
@@ -4769,16 +4777,16 @@
     </row>
     <row r="19" spans="1:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>38</v>
@@ -4787,22 +4795,22 @@
         <v>39</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H19" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" s="79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K19" s="79" t="s">
         <v>53</v>
       </c>
       <c r="L19" s="81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>50</v>
@@ -4819,14 +4827,14 @@
       <c r="Q19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="95"/>
+      <c r="R19" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="96"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -4835,37 +4843,37 @@
         <v>26</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="G20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="I20" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="J20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="L20" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="M20" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="N20" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="4"/>
@@ -4886,10 +4894,10 @@
         <v>34</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D21" s="60"/>
     </row>
@@ -4898,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C22" s="93">
         <v>2944675128</v>
@@ -4907,28 +4915,28 @@
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>50</v>
@@ -4943,10 +4951,54 @@
         <v>31</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="268">
   <si>
     <t>Descripción</t>
   </si>
@@ -507,18 +507,6 @@
     <t>Venta Equipo New OfCom</t>
   </si>
   <si>
-    <t>Nom inacion</t>
-  </si>
-  <si>
-    <t>Nomiauto</t>
-  </si>
-  <si>
-    <t>Nominacionautoma@gmail.com</t>
-  </si>
-  <si>
-    <t>Punta Alta Alte Solier</t>
-  </si>
-  <si>
     <t>Gestion Nomina nuevo</t>
   </si>
   <si>
@@ -594,96 +582,6 @@
     <t>Pack 1GB + WhasApp x 1 día</t>
   </si>
   <si>
-    <t>22223030</t>
-  </si>
-  <si>
-    <t>22223031</t>
-  </si>
-  <si>
-    <t>22223032</t>
-  </si>
-  <si>
-    <t>22223033</t>
-  </si>
-  <si>
-    <t>22223034</t>
-  </si>
-  <si>
-    <t>22223035</t>
-  </si>
-  <si>
-    <t>22223036</t>
-  </si>
-  <si>
-    <t>22223037</t>
-  </si>
-  <si>
-    <t>22223038</t>
-  </si>
-  <si>
-    <t>22223039</t>
-  </si>
-  <si>
-    <t>Treinta</t>
-  </si>
-  <si>
-    <t>Treintaiuno</t>
-  </si>
-  <si>
-    <t>Treintaidos</t>
-  </si>
-  <si>
-    <t>Treintaitres</t>
-  </si>
-  <si>
-    <t>Treintaicuatro</t>
-  </si>
-  <si>
-    <t>Treintaicinco</t>
-  </si>
-  <si>
-    <t>Treintaiseis</t>
-  </si>
-  <si>
-    <t>Treintaisiete</t>
-  </si>
-  <si>
-    <t>Treitaiocho</t>
-  </si>
-  <si>
-    <t>Treintainueve</t>
-  </si>
-  <si>
-    <t>2932446927</t>
-  </si>
-  <si>
-    <t>2932446963</t>
-  </si>
-  <si>
-    <t>2932446969</t>
-  </si>
-  <si>
-    <t>2932446979</t>
-  </si>
-  <si>
-    <t>2932447004</t>
-  </si>
-  <si>
-    <t>2932447098</t>
-  </si>
-  <si>
-    <t>2932447111</t>
-  </si>
-  <si>
-    <t>2932440039</t>
-  </si>
-  <si>
-    <t>2932440049</t>
-  </si>
-  <si>
-    <t>2932440071</t>
-  </si>
-  <si>
     <t>22222015</t>
   </si>
   <si>
@@ -744,12 +642,6 @@
     <t>Amigos Letras</t>
   </si>
   <si>
-    <t>Nominacion</t>
-  </si>
-  <si>
-    <t>2932477533</t>
-  </si>
-  <si>
     <t>Gestion Reseteo Clave</t>
   </si>
   <si>
@@ -904,6 +796,36 @@
   </si>
   <si>
     <t>Renovacion Cuota Con TC Con Saldo</t>
+  </si>
+  <si>
+    <t>Quenico</t>
+  </si>
+  <si>
+    <t>Torrecaida@gmail.com</t>
+  </si>
+  <si>
+    <t>Vicente Lopez</t>
+  </si>
+  <si>
+    <t>NominacionExistenteOfCom</t>
+  </si>
+  <si>
+    <t>NoNominaNuevoAgente</t>
+  </si>
+  <si>
+    <t>Nodoc</t>
+  </si>
+  <si>
+    <t>Nominado</t>
+  </si>
+  <si>
+    <t>Nodocnominado@gmail.com</t>
+  </si>
+  <si>
+    <t>NominacionNuevoAgente</t>
+  </si>
+  <si>
+    <t>NominacionNuevoPasaporteOfCom</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +927,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,18 +972,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1072,8 +982,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1110,6 +1026,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1117,7 +1048,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1200,11 +1131,8 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1229,34 +1157,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,6 +1199,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1671,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1768,183 +1706,183 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="N3" s="42"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-    </row>
-    <row r="5" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="N4" s="42"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="41" t="s">
         <v>45</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1959,7 +1897,7 @@
       <c r="Q5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="71" t="s">
+      <c r="R5" s="61" t="s">
         <v>114</v>
       </c>
       <c r="S5" s="33"/>
@@ -1969,7 +1907,7 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
     </row>
-    <row r="6" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -2013,14 +1951,14 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2044,30 +1982,30 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+    </row>
+    <row r="8" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -2147,51 +2085,51 @@
       </c>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+    <row r="10" spans="1:26" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2218,7 +2156,7 @@
       <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="42" t="s">
         <v>103</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -2260,43 +2198,43 @@
       <c r="V11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="41" t="s">
+      <c r="W11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="40" t="s">
+      <c r="X11" s="38" t="s">
         <v>39</v>
       </c>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+    <row r="12" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="41" t="s">
         <v>75</v>
       </c>
       <c r="L12" s="11" t="s">
@@ -2308,15 +2246,15 @@
       <c r="N12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2340,7 +2278,7 @@
       <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="42" t="s">
         <v>103</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -2414,7 +2352,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>12</v>
@@ -2435,37 +2373,37 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:26" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:26" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="17" spans="1:26" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="1:26" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -2519,91 +2457,91 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>178</v>
+    <row r="18" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>174</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-    </row>
-    <row r="19" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
@@ -2655,612 +2593,475 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="39">
-        <v>22222020</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="38" t="s">
+    <row r="21" spans="1:26" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="38" t="s">
+      <c r="B21" s="87">
+        <v>33649</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="63" t="s">
+      <c r="G21" s="86">
+        <v>1524</v>
+      </c>
+      <c r="H21" s="86">
+        <v>1524</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+    </row>
+    <row r="22" spans="1:26" s="40" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="86">
+        <v>2932443385</v>
+      </c>
+      <c r="C22" s="86">
+        <v>22222035</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="66" t="s">
+      <c r="G22" s="87">
+        <v>33649</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="63" t="s">
+      <c r="J22" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="63" t="s">
+      <c r="L22" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M22" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+    </row>
+    <row r="23" spans="1:26" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="86">
+        <v>2932443385</v>
+      </c>
+      <c r="C23" s="86">
+        <v>22222035</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="66" t="s">
+      <c r="G23" s="87">
+        <v>33649</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+    </row>
+    <row r="24" spans="1:26" s="40" customFormat="1" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="86">
+        <v>2932443385</v>
+      </c>
+      <c r="C24" s="86">
+        <v>22222035</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="87">
+        <v>33649</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K23" s="63" t="s">
+      <c r="J24" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="63" t="s">
+      <c r="L24" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M24" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+    </row>
+    <row r="25" spans="1:26" s="40" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="86">
+        <v>2932478762</v>
+      </c>
+      <c r="C25" s="86">
+        <v>132869547</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="66" t="s">
+      <c r="G25" s="87">
+        <v>43758</v>
+      </c>
+      <c r="H25" s="90">
+        <v>33649</v>
+      </c>
+      <c r="I25" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="J25" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="63" t="s">
+      <c r="K25" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K30" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" s="63" t="s">
-        <v>45</v>
-      </c>
+      <c r="M25" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N25" s="86">
+        <v>1524</v>
+      </c>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+    </row>
+    <row r="26" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91"/>
+      <c r="C26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="91"/>
+      <c r="C27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="91"/>
+      <c r="C28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+    </row>
+    <row r="29" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="91"/>
+      <c r="C31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3273,12 +3074,16 @@
     <hyperlink ref="G3" r:id="rId7"/>
     <hyperlink ref="G12" r:id="rId8"/>
     <hyperlink ref="G19" r:id="rId9"/>
-    <hyperlink ref="H21" r:id="rId10" display="ht@gmail.com"/>
-    <hyperlink ref="H22" r:id="rId11"/>
-    <hyperlink ref="H23:H41" r:id="rId12" display="Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H23:H41" r:id="rId10" display="Nominacionautoma@gmail.com"/>
+    <hyperlink ref="C21" r:id="rId11" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H22" r:id="rId12" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H23" r:id="rId13" display="mailto:Nodocnominado@gmail.com"/>
+    <hyperlink ref="H24" r:id="rId14" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H25" r:id="rId15" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="I25" r:id="rId16" display="mailto:Nominacionautoma@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3287,7 +3092,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3157,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="23">
         <v>1161138551</v>
@@ -3366,7 +3171,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" s="23">
         <v>1161138552</v>
@@ -3374,71 +3179,71 @@
     </row>
     <row r="4" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="78" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
-        <v>239</v>
+      <c r="A8" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="78"/>
+      <c r="C8" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -3474,7 +3279,7 @@
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>78</v>
@@ -3483,10 +3288,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3494,7 +3299,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3505,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -3536,10 +3341,10 @@
         <v>92</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3550,7 +3355,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E14" s="26"/>
     </row>
@@ -3562,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>145</v>
@@ -3592,119 +3397,119 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="56" t="s">
+    <row r="16" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-    </row>
-    <row r="17" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+    </row>
+    <row r="17" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-    </row>
-    <row r="18" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+    </row>
+    <row r="18" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
+        <v>251</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
     </row>
     <row r="19" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -3717,7 +3522,7 @@
         <v>111</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="94">
+      <c r="E19" s="83">
         <v>54342122</v>
       </c>
     </row>
@@ -3728,7 +3533,9 @@
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="6"/>
@@ -3757,14 +3564,16 @@
       <c r="A21" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="94">
-        <v>54342122</v>
-      </c>
-      <c r="C21" s="78"/>
+      <c r="B21" s="83">
+        <v>22225061</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -3796,15 +3605,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -3836,15 +3645,15 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -3876,7 +3685,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>106</v>
@@ -3884,7 +3693,7 @@
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -3914,87 +3723,87 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-    </row>
-    <row r="30" spans="1:26" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
-        <v>266</v>
+        <v>208</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+    </row>
+    <row r="30" spans="1:26" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="81" t="s">
+        <v>230</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
+        <v>228</v>
+      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
@@ -4003,13 +3812,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4032,91 +3841,91 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>105</v>
@@ -4124,18 +3933,18 @@
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -4143,7 +3952,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>105</v>
@@ -4159,7 +3968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -4243,7 +4052,7 @@
         <v>93</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>94</v>
@@ -4252,7 +4061,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>50</v>
@@ -4267,7 +4076,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>30</v>
@@ -4314,7 +4123,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>132</v>
@@ -4323,7 +4132,7 @@
         <v>131</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>84</v>
@@ -4338,7 +4147,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>97</v>
@@ -4363,7 +4172,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>111</v>
@@ -4376,10 +4185,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
@@ -4457,27 +4266,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="78" t="s">
-        <v>226</v>
+      <c r="G10" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>53</v>
@@ -4501,30 +4310,30 @@
         <v>76</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>227</v>
+      <c r="E11" s="68" t="s">
+        <v>193</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="77" t="s">
-        <v>226</v>
+      <c r="G11" s="67" t="s">
+        <v>192</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
@@ -4548,31 +4357,31 @@
         <v>76</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="78" t="s">
-        <v>226</v>
+      <c r="G12" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>53</v>
@@ -4596,19 +4405,19 @@
         <v>76</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
@@ -4616,25 +4425,25 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>227</v>
+      <c r="E14" s="68" t="s">
+        <v>193</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>82</v>
@@ -4648,19 +4457,19 @@
     </row>
     <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>227</v>
+        <v>185</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>193</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>82</v>
@@ -4736,11 +4545,11 @@
       <c r="B17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="45"/>
+      <c r="C17" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="33"/>
@@ -4754,16 +4563,16 @@
     </row>
     <row r="18" spans="1:27" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="45"/>
+      <c r="C18" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="33"/>
@@ -4780,42 +4589,42 @@
         <v>112</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="80" t="s">
+      <c r="G19" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="79" t="s">
+      <c r="I19" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="83" t="s">
+      <c r="J19" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="71" t="s">
         <v>114</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="81" t="s">
+      <c r="N19" s="71" t="s">
         <v>51</v>
       </c>
       <c r="O19" s="11" t="s">
@@ -4827,10 +4636,10 @@
       <c r="Q19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="96" t="s">
+      <c r="R19" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="96"/>
+      <c r="S19" s="85"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -4889,39 +4698,39 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="60"/>
-    </row>
-    <row r="22" spans="1:27" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="57"/>
+    </row>
+    <row r="22" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="93">
+        <v>238</v>
+      </c>
+      <c r="C22" s="82">
         <v>2944675128</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="57"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>273</v>
+        <v>236</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>237</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>94</v>
@@ -4959,18 +4768,18 @@
     </row>
     <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>273</v>
+        <v>236</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>237</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="68" t="s">
         <v>82</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -5002,7 +4811,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C26" s="94"/>
+      <c r="C26" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2EUAT.xlsx
+++ b/E2EUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="318">
   <si>
     <t>Descripción</t>
   </si>
@@ -573,9 +573,6 @@
     <t>GestionAnulacion de Venta</t>
   </si>
   <si>
-    <t>packTelefonico</t>
-  </si>
-  <si>
     <t>VISA ARGENTINA S.A. - Cuotas: 1.. 1 Recargo: 0,00%</t>
   </si>
   <si>
@@ -673,9 +670,6 @@
   </si>
   <si>
     <t>Productos y Servicios</t>
-  </si>
-  <si>
-    <t>packTelefonicoInternacional30SMS</t>
   </si>
   <si>
     <t>Pack internacional 30 SMS al Resto del Mundo</t>
@@ -952,6 +946,36 @@
   </si>
   <si>
     <t>2932559549</t>
+  </si>
+  <si>
+    <t>Pack 50min Tel</t>
+  </si>
+  <si>
+    <t>Pack 50min Oficina</t>
+  </si>
+  <si>
+    <t>Pack 100MB Uruguay</t>
+  </si>
+  <si>
+    <t>Pack 5000 Min todo destino</t>
+  </si>
+  <si>
+    <t>PackAdela40</t>
+  </si>
+  <si>
+    <t>Pack Adelanto Personal 40</t>
+  </si>
+  <si>
+    <t>Pack M2M 10</t>
+  </si>
+  <si>
+    <t>Pack Paquete M2M 10 MB</t>
+  </si>
+  <si>
+    <t>Pack500min</t>
+  </si>
+  <si>
+    <t>packTelefoInternacional30SMS</t>
   </si>
 </sst>
 </file>
@@ -2423,7 +2447,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>12</v>
@@ -2457,7 +2481,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>12</v>
@@ -2845,7 +2869,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>12</v>
@@ -2929,7 +2953,7 @@
         <v>170</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>88</v>
@@ -3062,16 +3086,16 @@
     </row>
     <row r="21" spans="1:26" s="102" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
       <c r="A21" s="79" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" s="101" t="s">
         <v>176</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="79" t="s">
         <v>76</v>
@@ -3080,16 +3104,16 @@
         <v>20</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I21" s="79" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K21" s="79" t="s">
         <v>44</v>
@@ -3104,28 +3128,28 @@
     </row>
     <row r="22" spans="1:26" s="105" customFormat="1" ht="13.8" thickBot="1">
       <c r="A22" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="79" t="s">
         <v>242</v>
-      </c>
-      <c r="B22" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="103" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>244</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H22" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
@@ -3136,16 +3160,16 @@
     </row>
     <row r="23" spans="1:26" s="105" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A23" s="79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E23" s="79" t="s">
         <v>76</v>
@@ -3154,16 +3178,16 @@
         <v>20</v>
       </c>
       <c r="G23" s="104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I23" s="79" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K23" s="79" t="s">
         <v>44</v>
@@ -3178,16 +3202,16 @@
     </row>
     <row r="24" spans="1:26" s="105" customFormat="1" ht="12.6" customHeight="1" thickBot="1">
       <c r="A24" s="79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>76</v>
@@ -3196,19 +3220,19 @@
         <v>20</v>
       </c>
       <c r="G24" s="104" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H24" s="97">
         <v>33649</v>
       </c>
       <c r="I24" s="95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J24" s="79" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L24" s="79" t="s">
         <v>44</v>
@@ -3222,19 +3246,19 @@
     </row>
     <row r="25" spans="1:26" s="106" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
       <c r="A25" s="79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="103" t="s">
         <v>279</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>281</v>
       </c>
       <c r="D25" s="79" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F25" s="79"/>
       <c r="G25" s="103"/>
@@ -3260,28 +3284,28 @@
     </row>
     <row r="26" spans="1:26" s="106" customFormat="1" ht="13.8" thickBot="1">
       <c r="A26" s="79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E26" s="79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26" s="79" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H26" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I26" s="79"/>
       <c r="J26" s="79"/>
@@ -3304,16 +3328,16 @@
     </row>
     <row r="27" spans="1:26" s="109" customFormat="1" ht="12.6" customHeight="1" thickBot="1">
       <c r="A27" s="98" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E27" s="79" t="s">
         <v>76</v>
@@ -3322,16 +3346,16 @@
         <v>20</v>
       </c>
       <c r="G27" s="108" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H27" s="95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I27" s="79" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K27" s="79" t="s">
         <v>44</v>
@@ -5664,8 +5688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5808,7 +5832,7 @@
     </row>
     <row r="8" spans="1:26" s="61" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>106</v>
@@ -5819,39 +5843,39 @@
     </row>
     <row r="9" spans="1:26" s="61" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B9" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="89" t="s">
         <v>255</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>257</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="84"/>
     </row>
     <row r="10" spans="1:26" s="61" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A10" s="79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:26" s="61" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A11" s="79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>106</v>
@@ -5860,14 +5884,14 @@
         <v>162</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:26" s="61" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A12" s="79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>106</v>
@@ -5877,13 +5901,13 @@
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="89" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:26" s="61" customFormat="1" ht="12.6" customHeight="1" thickBot="1">
       <c r="A13" s="79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>106</v>
@@ -5899,7 +5923,7 @@
     </row>
     <row r="14" spans="1:26" s="21" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="A14" s="79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>106</v>
@@ -5947,7 +5971,7 @@
     </row>
     <row r="16" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>104</v>
@@ -5967,7 +5991,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
@@ -5978,7 +6002,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
@@ -6009,10 +6033,10 @@
         <v>91</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="21" customFormat="1" ht="15" customHeight="1">
@@ -6035,7 +6059,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>142</v>
@@ -6076,10 +6100,10 @@
         <v>108</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
@@ -6105,7 +6129,7 @@
     </row>
     <row r="23" spans="1:26" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>104</v>
@@ -6114,10 +6138,10 @@
         <v>108</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
@@ -6143,7 +6167,7 @@
     </row>
     <row r="24" spans="1:26" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>104</v>
@@ -6152,10 +6176,10 @@
         <v>108</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -6184,10 +6208,10 @@
         <v>72</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="73">
@@ -6202,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
@@ -6230,13 +6254,13 @@
     </row>
     <row r="27" spans="1:26" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>305</v>
-      </c>
-      <c r="B27" s="99" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>307</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="44"/>
@@ -6267,10 +6291,10 @@
         <v>107</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
@@ -6350,7 +6374,7 @@
         <v>169</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:16384" ht="12" customHeight="1">
@@ -6387,7 +6411,7 @@
     </row>
     <row r="34" spans="1:16384" ht="15" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>105</v>
@@ -6395,7 +6419,7 @@
     </row>
     <row r="35" spans="1:16384" ht="12" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -6427,10 +6451,10 @@
     </row>
     <row r="36" spans="1:16384" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="70"/>
@@ -6459,10 +6483,10 @@
     </row>
     <row r="37" spans="1:16384" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="70"/>
@@ -6491,21 +6515,21 @@
     </row>
     <row r="38" spans="1:16384" ht="15" customHeight="1">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:16384" ht="12" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
@@ -6514,13 +6538,13 @@
         <v>14</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -6543,59 +6567,59 @@
     </row>
     <row r="40" spans="1:16384" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C40" s="99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H40" s="133" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:16384" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" t="s">
         <v>204</v>
       </c>
-      <c r="D41" t="s">
-        <v>205</v>
-      </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:16384" ht="12" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>2</v>
@@ -6627,48 +6651,48 @@
     </row>
     <row r="43" spans="1:16384" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:16384" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:16384" ht="15" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:16384" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:16384" ht="15" customHeight="1">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>104</v>
@@ -6676,16 +6700,16 @@
     </row>
     <row r="48" spans="1:16384" s="92" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E48" s="90"/>
       <c r="F48" s="91"/>
@@ -23070,16 +23094,16 @@
     </row>
     <row r="49" spans="1:16384" ht="15" customHeight="1">
       <c r="A49" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="C49" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -39464,24 +39488,24 @@
     </row>
     <row r="50" spans="1:16384" ht="15" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:16384" ht="15" customHeight="1">
       <c r="A51" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -39495,10 +39519,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -39576,22 +39600,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>53</v>
@@ -39698,10 +39722,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="134"/>
       <c r="E6" s="81"/>
@@ -39711,10 +39735,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="83"/>
@@ -39783,10 +39807,10 @@
         <v>126</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>54</v>
@@ -39794,25 +39818,25 @@
     </row>
     <row r="10" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="75" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H10" s="75" t="s">
         <v>53</v>
@@ -39833,10 +39857,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="O10" s="78" t="s">
         <v>293</v>
-      </c>
-      <c r="O10" s="78" t="s">
-        <v>295</v>
       </c>
       <c r="P10" s="75"/>
       <c r="Q10" s="75"/>
@@ -39853,25 +39877,25 @@
     </row>
     <row r="11" spans="1:27" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="23" t="s">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>53</v>
@@ -39892,34 +39916,34 @@
         <v>31</v>
       </c>
       <c r="N11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="O11" s="78" t="s">
         <v>293</v>
-      </c>
-      <c r="O11" s="78" t="s">
-        <v>295</v>
       </c>
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="23" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>53</v>
@@ -39940,22 +39964,25 @@
         <v>31</v>
       </c>
       <c r="N12" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="O12" s="78" t="s">
         <v>293</v>
-      </c>
-      <c r="O12" s="78" t="s">
-        <v>295</v>
       </c>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>230</v>
+      <c r="D13" s="61" t="s">
+        <v>310</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="25"/>
@@ -39972,16 +39999,16 @@
         <v>175</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>178</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>81</v>
@@ -39993,21 +40020,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15">
+    <row r="15" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>178</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>81</v>
@@ -40015,438 +40042,502 @@
       <c r="G15" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:27" ht="12" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+    <row r="16" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>110</v>
+    <row r="17" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="61" t="s">
+        <v>312</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
+        <v>292</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="27" t="s">
-        <v>174</v>
+    <row r="18" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
+        <v>292</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="27" t="s">
-        <v>109</v>
+    <row r="19" spans="1:27" ht="15">
+      <c r="A19" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="63" t="s">
+      <c r="D19" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="12" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F23" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="79">
+        <v>3</v>
+      </c>
+      <c r="N23" s="79">
+        <v>2020</v>
+      </c>
+      <c r="O23" s="79">
+        <v>318</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="79">
+        <v>33332001</v>
+      </c>
+      <c r="R23" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="S23" s="140"/>
+    </row>
+    <row r="24" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="137"/>
+    </row>
+    <row r="25" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="G19" s="138" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19" s="79" t="s">
+      <c r="B25" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="79" t="s">
+      <c r="J25" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L25" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="79">
+      <c r="M25" s="79">
         <v>3</v>
       </c>
-      <c r="N19" s="79">
+      <c r="N25" s="79">
         <v>2020</v>
       </c>
-      <c r="O19" s="79">
+      <c r="O25" s="79">
         <v>318</v>
       </c>
-      <c r="P19" s="79" t="s">
+      <c r="P25" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="79">
-        <v>33332001</v>
-      </c>
-      <c r="R19" s="139" t="s">
-        <v>287</v>
-      </c>
-      <c r="S19" s="140"/>
+      <c r="Q25" s="79">
+        <v>33332010</v>
+      </c>
+      <c r="R25" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="S25" s="140"/>
     </row>
-    <row r="20" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="137"/>
+    <row r="26" spans="1:27" ht="12" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" s="138" t="s">
-        <v>297</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" s="79" t="s">
+    <row r="27" spans="1:27" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:27" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="72">
+        <v>2944675128</v>
+      </c>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="79" t="s">
+      <c r="F29" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="H29" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="79">
-        <v>3</v>
-      </c>
-      <c r="N21" s="79">
-        <v>2020</v>
-      </c>
-      <c r="O21" s="79">
-        <v>318</v>
-      </c>
-      <c r="P21" s="79" t="s">
+      <c r="I29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="79">
-        <v>33332010</v>
-      </c>
-      <c r="R21" s="139" t="s">
-        <v>302</v>
-      </c>
-      <c r="S21" s="140"/>
+      <c r="M29" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="12" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+    <row r="30" spans="1:27" ht="15">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" s="50"/>
+    <row r="32" spans="1:27" ht="13.8" thickBot="1">
+      <c r="C32" s="73"/>
     </row>
-    <row r="24" spans="1:27" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="72">
-        <v>2944675128</v>
-      </c>
-      <c r="D24" s="50"/>
+    <row r="33" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15">
-      <c r="A26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="13.8" thickBot="1">
-      <c r="C28" s="73"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.8" thickBot="1">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-    </row>
-    <row r="30" spans="1:27" ht="13.8" thickBot="1">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
+    <row r="34" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
